--- a/data/hotels_by_city/Dallas/Dallas_shard_687.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_687.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2103 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r564982679-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98622</t>
+  </si>
+  <si>
+    <t>564982679</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Close to Love Field</t>
+  </si>
+  <si>
+    <t>Good shuttle service to &amp; from Love Field.  Friendly staff.  Restaurants within driving distance.  Area seems ok.  Didn’t eat breakfast.  Room was large 1 br suite and was comfortable.  Average furnishings.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Good shuttle service to &amp; from Love Field.  Friendly staff.  Restaurants within driving distance.  Area seems ok.  Didn’t eat breakfast.  Room was large 1 br suite and was comfortable.  Average furnishings.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r564883090-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>564883090</t>
+  </si>
+  <si>
+    <t>Excellent Value - Helpful Staff</t>
+  </si>
+  <si>
+    <t>We were quite impressed by the overall well kept condition of this property and the price-to-value that was offered.  The room was clean and spacious ... bed was quite comfortable.  Lisa Hoover, the General Manager, was extremely accommodating in helping return a pair of tennis shoes that I left behind.  Ample parking and convenient location.  Only shortcoming was a single, rather than a double, bathroom sink.  Overall, a very good experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r553024344-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>553024344</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location location </t>
+  </si>
+  <si>
+    <t>I’ll start with the positive things I noticed about the hotel. The front desk staff is really friendly and helpful. The room was clean for the most part. (curtains and window shades were dirty)On to the cons, this hotel is located between a large liquor store and plasma center. Because of this I do not recommend this hotel for families. I wouldn’t stay at this hotel again if traveling to this area. Seems to be a ton of better optionsMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>I’ll start with the positive things I noticed about the hotel. The front desk staff is really friendly and helpful. The room was clean for the most part. (curtains and window shades were dirty)On to the cons, this hotel is located between a large liquor store and plasma center. Because of this I do not recommend this hotel for families. I wouldn’t stay at this hotel again if traveling to this area. Seems to be a ton of better optionsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r540307067-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>540307067</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Not the property it used to be</t>
+  </si>
+  <si>
+    <t>I have stayed at this property a few times over the years, the last time 18 months ago. I have to say this property is showing its age along with an outdated look. I also was a bit concerned with the "plasma bank" across the street and the constant flow of people around the property. While I am an avid Marriott Rewards member and fan, this property is not worth the rack rate they are charging. Next time I am in Dallas I will look at other Marriott properties or other chains for my stays on the West side of town.P.S. If you are over 5'8" tall...you will have a hard time fitting under the shower head.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this property a few times over the years, the last time 18 months ago. I have to say this property is showing its age along with an outdated look. I also was a bit concerned with the "plasma bank" across the street and the constant flow of people around the property. While I am an avid Marriott Rewards member and fan, this property is not worth the rack rate they are charging. Next time I am in Dallas I will look at other Marriott properties or other chains for my stays on the West side of town.P.S. If you are over 5'8" tall...you will have a hard time fitting under the shower head.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r539562877-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>539562877</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Leftover food in fridge and limited shuttle availability</t>
+  </si>
+  <si>
+    <t>My room was mostly clean, but the leftover food in the fridge was disgusting.  I was only staying overnight and I was looking forward to getting on the morning shuttle to Love Field.  However, the regular hotel shuttle van was out of service, so they were using what appeared to be someone's mini-van as a shuttle.  Since it can only accommodate a handful of people and their luggage, I had to go with Uber.  I get it that vehicles need service, but I expect a Marriott brand to step it up and rent a 15 passenger van from Enterprise or someplace similar.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>My room was mostly clean, but the leftover food in the fridge was disgusting.  I was only staying overnight and I was looking forward to getting on the morning shuttle to Love Field.  However, the regular hotel shuttle van was out of service, so they were using what appeared to be someone's mini-van as a shuttle.  Since it can only accommodate a handful of people and their luggage, I had to go with Uber.  I get it that vehicles need service, but I expect a Marriott brand to step it up and rent a 15 passenger van from Enterprise or someplace similar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r537981341-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>537981341</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Find Another Place</t>
+  </si>
+  <si>
+    <t>Staff was nice.  There is the positive.  Air conditioning was only sufficient (at best) in sleeping area.  Turned wall unit down to 65 - should be freezing - cool at best.  Carpet is gross.  Thank goodness I packed flip flops.  First time at SpringHill Suites.  It will be my last. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa H, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Staff was nice.  There is the positive.  Air conditioning was only sufficient (at best) in sleeping area.  Turned wall unit down to 65 - should be freezing - cool at best.  Carpet is gross.  Thank goodness I packed flip flops.  First time at SpringHill Suites.  It will be my last. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r533601099-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>533601099</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Great for a limited stay</t>
+  </si>
+  <si>
+    <t>The staff was wonderful.  Especially the Shuttle drivers.  The room was clean.  Breakfast buffet was good.  Shuttle to Love Field a plus.  The rates they had for weekend of Oct 13 &amp; 14 does not match the age and features of the hotel.  Hotel is old, elevator is tight and parking slots are small and limited.  This hotel needs an upgrade if they want to charge high prices.  The area is not the safest.  I was in walking distance of IHOP, but chose to drive because people were drinking and smoking at the front of the parking lot, customers were allowed to smoke in front of side entrance and even a hotel worker was smoking near the front door.  There were other folks standing around IHOP.   It not good when you have to go through smoke to enter the hotel and feel unsafe around the area. 'Nothing" bad happened to me, I would suggest they get a security guard for outside during peak times and change their smoking locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Kathryn L, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>The staff was wonderful.  Especially the Shuttle drivers.  The room was clean.  Breakfast buffet was good.  Shuttle to Love Field a plus.  The rates they had for weekend of Oct 13 &amp; 14 does not match the age and features of the hotel.  Hotel is old, elevator is tight and parking slots are small and limited.  This hotel needs an upgrade if they want to charge high prices.  The area is not the safest.  I was in walking distance of IHOP, but chose to drive because people were drinking and smoking at the front of the parking lot, customers were allowed to smoke in front of side entrance and even a hotel worker was smoking near the front door.  There were other folks standing around IHOP.   It not good when you have to go through smoke to enter the hotel and feel unsafe around the area. 'Nothing" bad happened to me, I would suggest they get a security guard for outside during peak times and change their smoking locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r533280966-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>533280966</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>One night</t>
+  </si>
+  <si>
+    <t>Great to receive the upgrade, but make sure the room is clean. Reception was friendly and accommodating, shuttle is a plus. Bed was as expected.Close to Love Field,  shuttle was a bonus getting to the airport. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kathryn L, Director of Sales at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Great to receive the upgrade, but make sure the room is clean. Reception was friendly and accommodating, shuttle is a plus. Bed was as expected.Close to Love Field,  shuttle was a bonus getting to the airport. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r528819041-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>528819041</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>It does what it says on the tin</t>
+  </si>
+  <si>
+    <t>we were here for a week for business at a location nearby. Its location for those sessions was excellent - unfortunately it was well out of town as far as anything else was concerned and it was quite a trek to see anything else. The breakfast was standard - fine - but standard and the rooms were comfy. The freeway turnpike was just across the carpark and so was occasionally very loud. When we arrived on a Sunday night there was no food available and searches of local takeaways proved fruitless - so we went to bed hungry!!! This is a standard corporate hotel  - you get what you expectMoreShow less</t>
+  </si>
+  <si>
+    <t>Kathryn L, Assistant General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>we were here for a week for business at a location nearby. Its location for those sessions was excellent - unfortunately it was well out of town as far as anything else was concerned and it was quite a trek to see anything else. The breakfast was standard - fine - but standard and the rooms were comfy. The freeway turnpike was just across the carpark and so was occasionally very loud. When we arrived on a Sunday night there was no food available and searches of local takeaways proved fruitless - so we went to bed hungry!!! This is a standard corporate hotel  - you get what you expectMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r499928608-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>499928608</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Bugs on the bed</t>
+  </si>
+  <si>
+    <t>We found this hotel from Marriott reservations. Said it was close to Love field for our super early flight the next morning. When we pulled up it is around liquor stores and bars just like another review said. We were immediately greeted by the girl at the front desk. She was super nice had everything ready for us just like you expect from Marriott. When we got in our room it had an odor we couldn't tell what it was. Then my daughter noticed a bug on the bed then she went to inspect the other bed and found one under the fitted sheet. We noticed some black dots on the pillows as well. So we decided to not stay there called an Uber to pick us up . I showed pics to the girl at the front and she was very apologetic. I told her we had another place we were staying but weren't comfortable staying there and my room was cancelled. Being a Marriott rewards customer you have certain expectations and that's why I always try to stay with Marriott but this one unfortunately didn't meet those expectations and I didn't feel comfortable staying there with my daughters .MoreShow less</t>
+  </si>
+  <si>
+    <t>Kathryn L, Assistant General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>We found this hotel from Marriott reservations. Said it was close to Love field for our super early flight the next morning. When we pulled up it is around liquor stores and bars just like another review said. We were immediately greeted by the girl at the front desk. She was super nice had everything ready for us just like you expect from Marriott. When we got in our room it had an odor we couldn't tell what it was. Then my daughter noticed a bug on the bed then she went to inspect the other bed and found one under the fitted sheet. We noticed some black dots on the pillows as well. So we decided to not stay there called an Uber to pick us up . I showed pics to the girl at the front and she was very apologetic. I told her we had another place we were staying but weren't comfortable staying there and my room was cancelled. Being a Marriott rewards customer you have certain expectations and that's why I always try to stay with Marriott but this one unfortunately didn't meet those expectations and I didn't feel comfortable staying there with my daughters .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r498951533-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>498951533</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Amazing staff that needs a new hotel and a new location</t>
+  </si>
+  <si>
+    <t>I needed a quick place to stay after a late arriving flight to Dallas.I chose the Springfield Inn due to it's price and availability.The staff is very good. Warm, welcoming and accommodating. The first room I checked into had a moldy smell to it. I immediately informed the front desk and they went to work. They upgraded me to a 2 bedroom suite.The suite was great however it didn't have the updates that the other smaller rooms had.The environment that the hotel is in is not pleasant. My daughter kept asking "What's a Gentleman's Club?"There's a liquor store on one side and an strip club on the other. If you'd prefer not to have your kids learn about the night life I'd recommend finding another hotel.The staff however is great. Breakfast was good, the housekeeping was good, Marriott needs to give this crew a new hotel in a new location as the crew is doing the best they can with that they got.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Lisa H, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>I needed a quick place to stay after a late arriving flight to Dallas.I chose the Springfield Inn due to it's price and availability.The staff is very good. Warm, welcoming and accommodating. The first room I checked into had a moldy smell to it. I immediately informed the front desk and they went to work. They upgraded me to a 2 bedroom suite.The suite was great however it didn't have the updates that the other smaller rooms had.The environment that the hotel is in is not pleasant. My daughter kept asking "What's a Gentleman's Club?"There's a liquor store on one side and an strip club on the other. If you'd prefer not to have your kids learn about the night life I'd recommend finding another hotel.The staff however is great. Breakfast was good, the housekeeping was good, Marriott needs to give this crew a new hotel in a new location as the crew is doing the best they can with that they got.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r495205041-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>495205041</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anniversary </t>
+  </si>
+  <si>
+    <t>The front desk was very friendly and accommodating. Breakfast had multiple options. The shuttle drivers were phenomenal!! When my husband and I arrived for our 3 day anniversary weekend our room was clean and air temperature comfortable. The next morning I had just gotten out of the shower when housekeeping knocked on the door. My husband requested them to return in about 30 minutes and received a smile and head nod. This exchange continued for approximately 5 minutes while he continued to receive a smile and head nod and finally a no comprende. We did not receive any towels, Kleenex, toiletries replacements or bed service for the duration of our stay. We did not notify the front desk until we checked out. The location is convenient to Dallas Love Field and many restaurants in the area. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Lisa H, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>The front desk was very friendly and accommodating. Breakfast had multiple options. The shuttle drivers were phenomenal!! When my husband and I arrived for our 3 day anniversary weekend our room was clean and air temperature comfortable. The next morning I had just gotten out of the shower when housekeeping knocked on the door. My husband requested them to return in about 30 minutes and received a smile and head nod. This exchange continued for approximately 5 minutes while he continued to receive a smile and head nod and finally a no comprende. We did not receive any towels, Kleenex, toiletries replacements or bed service for the duration of our stay. We did not notify the front desk until we checked out. The location is convenient to Dallas Love Field and many restaurants in the area. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r487790240-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>487790240</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Older Hotel but nice people</t>
+  </si>
+  <si>
+    <t>This is an older SHS.  Different than most but it seems to be kept up.  Checked in with no issues and was warmly greeted as a regular Marriott Customer.  Room was ready and all was in working order.  Bed was comfortable and bathroom was clean.While this hotel isn't real far from  restaurants, because of a highway or busy road you need to cross it isn't advisable to walk there.  I didn't have a car (they pick up at the airport DAL) and they told me not to walk.  They offered to take me to one of the local restaurants.  There is an IHOP real close to the hotel and I had lunch there.  Wouldn't  recommend going there as the people are  rude and service was bad.This was a comfortable place and I will return if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This is an older SHS.  Different than most but it seems to be kept up.  Checked in with no issues and was warmly greeted as a regular Marriott Customer.  Room was ready and all was in working order.  Bed was comfortable and bathroom was clean.While this hotel isn't real far from  restaurants, because of a highway or busy road you need to cross it isn't advisable to walk there.  I didn't have a car (they pick up at the airport DAL) and they told me not to walk.  They offered to take me to one of the local restaurants.  There is an IHOP real close to the hotel and I had lunch there.  Wouldn't  recommend going there as the people are  rude and service was bad.This was a comfortable place and I will return if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r486599860-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>486599860</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Good for those who like being near liquor shops and plasma donation centers</t>
+  </si>
+  <si>
+    <t>We found this hotel in a pinch after getting stranded at Love Field overnight (thanks, Southwest). If you enjoy staying in a hotel whose neighbors include a liquor store, plasma donation center, and scuzzy IHOP, this is the place for you. Bringing small children here late at night definitely made us question our decision-making abilities. The room itself it was fine. Popcorn ceilings. Just your run-of-the-mill SpringHill Suites. Nothing super fancy or new. I will admit the bed was extremely comfortable and the kids loved the fold-out couch bed. The night we were there the lobby was overrun with drunk 20-year-old women so that was a plus! We waited for an hour at the airport to be picked up by the shuttle after being told it would be "just a minute." It would have been nice to have been informed of their timetable so we could have just gotten an Uber. The breakfast the next morning was fine. The kids didn't notice many of the things that made their parents wary. In a pinch this hotel was fine but I would not stay there long term or if you can plan ahead and find something in a better location.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Linda L, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>We found this hotel in a pinch after getting stranded at Love Field overnight (thanks, Southwest). If you enjoy staying in a hotel whose neighbors include a liquor store, plasma donation center, and scuzzy IHOP, this is the place for you. Bringing small children here late at night definitely made us question our decision-making abilities. The room itself it was fine. Popcorn ceilings. Just your run-of-the-mill SpringHill Suites. Nothing super fancy or new. I will admit the bed was extremely comfortable and the kids loved the fold-out couch bed. The night we were there the lobby was overrun with drunk 20-year-old women so that was a plus! We waited for an hour at the airport to be picked up by the shuttle after being told it would be "just a minute." It would have been nice to have been informed of their timetable so we could have just gotten an Uber. The breakfast the next morning was fine. The kids didn't notice many of the things that made their parents wary. In a pinch this hotel was fine but I would not stay there long term or if you can plan ahead and find something in a better location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r485108967-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>485108967</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Good shuttle service</t>
+  </si>
+  <si>
+    <t>We stayed here twice, the first time in 2015 and we returned this past weekend.  The hotel is reasonable, clean and with good service.   Our room wasn't ready when we arrived a bit early but the manager offered us bottled water and a place to wait.  She also gave us a list of good restaurants in the area if we wanted to have a meal and then return.  Our room was fresh and clean and on the floor we requested.The shuttle service to Dallas Love Field begins at 4:00 am which is better than some of the other nearby hotels.  We had a 6:30 am flight and needed that early ride.  When we came down the shuttle was waiting for us, another bonus.  We did not get a chance to have breakfast but we did enjoy the social hour on Monday evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here twice, the first time in 2015 and we returned this past weekend.  The hotel is reasonable, clean and with good service.   Our room wasn't ready when we arrived a bit early but the manager offered us bottled water and a place to wait.  She also gave us a list of good restaurants in the area if we wanted to have a meal and then return.  Our room was fresh and clean and on the floor we requested.The shuttle service to Dallas Love Field begins at 4:00 am which is better than some of the other nearby hotels.  We had a 6:30 am flight and needed that early ride.  When we came down the shuttle was waiting for us, another bonus.  We did not get a chance to have breakfast but we did enjoy the social hour on Monday evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r476248517-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>476248517</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Shuttle to Love Field</t>
+  </si>
+  <si>
+    <t>I had called to insure there was a Love Field shuttle for our 7a.m. flight only the read the desk-top sign at check in that said the shuttle begins at 7 on Saturdays.  Whew, no problem, it took us at 5:30.  The shuttle will also take you to nearby restaurants, a big bonus since we turned our car so we wouldn't have to deal with it before our flight.  That said, we are brand loyal because we always know at a Marriott we will have professional staff and a comfortable room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>I had called to insure there was a Love Field shuttle for our 7a.m. flight only the read the desk-top sign at check in that said the shuttle begins at 7 on Saturdays.  Whew, no problem, it took us at 5:30.  The shuttle will also take you to nearby restaurants, a big bonus since we turned our car so we wouldn't have to deal with it before our flight.  That said, we are brand loyal because we always know at a Marriott we will have professional staff and a comfortable room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r469801602-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>469801602</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>Stayed one night before early flight from DAL.  Hotel is clean and front desk team is professional.  When I arrived to the 1st room I noticed a stale smell like wet rug.  Also adjoining room lock would not lock.  Called front desk and requested to be moved.  Front desk clerk called back and offered to bring key to new room up to me but I declined and went down to get them.  New room was on 1st floor and was ok but still had the smell.  All in all was a good stay and would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night before early flight from DAL.  Hotel is clean and front desk team is professional.  When I arrived to the 1st room I noticed a stale smell like wet rug.  Also adjoining room lock would not lock.  Called front desk and requested to be moved.  Front desk clerk called back and offered to bring key to new room up to me but I declined and went down to get them.  New room was on 1st floor and was ok but still had the smell.  All in all was a good stay and would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r469573043-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>469573043</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Break with Grandchildren </t>
+  </si>
+  <si>
+    <t>Very nice hotel We were very pleased with our short stay in Dallas. The room was very clean and beds were comfortableThe staff at hotel very accommodating. The outdoor pool was closed for winter season but they have a large hot tub next to a nice workout facility The heated whirlpool was a little dingy on the sides and should been cleaned. MoreShow less</t>
+  </si>
+  <si>
+    <t>Linda L, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel We were very pleased with our short stay in Dallas. The room was very clean and beds were comfortableThe staff at hotel very accommodating. The outdoor pool was closed for winter season but they have a large hot tub next to a nice workout facility The heated whirlpool was a little dingy on the sides and should been cleaned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r446956589-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>446956589</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Pre-Christmas visit to Dallas Texas</t>
+  </si>
+  <si>
+    <t>Excellent Stay in Dallas . I was expecting a crazy rush at the Springhill Suites when I arrived but was pleasantly surprised at the attentive desk clerk that checked me in. The lobby looked new and allowed me access to the coffee machines and spacious and well decorated Lounge area.The Breakfast staff were polite friendly and offered me alternates to their standard breakfast array.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Linda L, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay in Dallas . I was expecting a crazy rush at the Springhill Suites when I arrived but was pleasantly surprised at the attentive desk clerk that checked me in. The lobby looked new and allowed me access to the coffee machines and spacious and well decorated Lounge area.The Breakfast staff were polite friendly and offered me alternates to their standard breakfast array.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r446955222-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>446955222</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed this hotel and found that the staff are always warm, friendly and willing to go the extra mile.The rooms were clean, fresh linen and all amenities available.  The hotel is located a convenient area and easily visible.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed this hotel and found that the staff are always warm, friendly and willing to go the extra mile.The rooms were clean, fresh linen and all amenities available.  The hotel is located a convenient area and easily visible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r446087576-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>446087576</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Layover</t>
+  </si>
+  <si>
+    <t>On a business trip to Dallas and arrived late night at Love Field.   Had booked this hotel as they do offer shuttle service.   Upon my very late night arrival, the front desk had the biggest greeting which made my day.   Just for the short time I was there from check in to check out, they went above and beyond my expectations.   Rooms were quiet, plenty of space to get work done and preparation of things for a presentation and a business center to help print out any last minute documents.   Had a well equipped fitness center with cardio and some free weights to stay on your fitness routine.   Nice selection of breakfast options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Linda L, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>On a business trip to Dallas and arrived late night at Love Field.   Had booked this hotel as they do offer shuttle service.   Upon my very late night arrival, the front desk had the biggest greeting which made my day.   Just for the short time I was there from check in to check out, they went above and beyond my expectations.   Rooms were quiet, plenty of space to get work done and preparation of things for a presentation and a business center to help print out any last minute documents.   Had a well equipped fitness center with cardio and some free weights to stay on your fitness routine.   Nice selection of breakfast options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r444011455-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>444011455</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>excellent hotel</t>
+  </si>
+  <si>
+    <t>Recruiting nearby, I stumbled on this property by accident.  I was building my Marriott points and this was the closest Marriott hotel for the industry I am looking into.  Great staff that cares and went above and beyond for my needs.  I needed color prints, they were there, I needed a decent place to eat, they were there.  I have been back since and the service is the same.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Linda L, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Recruiting nearby, I stumbled on this property by accident.  I was building my Marriott points and this was the closest Marriott hotel for the industry I am looking into.  Great staff that cares and went above and beyond for my needs.  I needed color prints, they were there, I needed a decent place to eat, they were there.  I have been back since and the service is the same.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r443857079-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>443857079</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Great time and good people</t>
+  </si>
+  <si>
+    <t>We had a business trip to see a new plant and our warehouse was in the industrial area of Dallas.  But the nearest Marriott, we were able to check in to the Springhill SUites on Stemmons Trail.  As soon as we arrived the people were excellent and professional.  I must say I was quite surprise due to the hotel was in an industrial area but the people were outstanding.  I will return anytime I am in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>We had a business trip to see a new plant and our warehouse was in the industrial area of Dallas.  But the nearest Marriott, we were able to check in to the Springhill SUites on Stemmons Trail.  As soon as we arrived the people were excellent and professional.  I must say I was quite surprise due to the hotel was in an industrial area but the people were outstanding.  I will return anytime I am in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r443855156-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>443855156</t>
+  </si>
+  <si>
+    <t>nice hotel in old dallas</t>
+  </si>
+  <si>
+    <t>A nice gem in the middle of industrial Dallas, nice people.  Genuine people with genuine smiles and always very accomodating to everyone.  I have to say thank you to Linda Liebbe, the General Manager was excellent and Lisa Hoover who made sure my meeting and group went off smoothly.  Truly good people.MoreShow less</t>
+  </si>
+  <si>
+    <t>A nice gem in the middle of industrial Dallas, nice people.  Genuine people with genuine smiles and always very accomodating to everyone.  I have to say thank you to Linda Liebbe, the General Manager was excellent and Lisa Hoover who made sure my meeting and group went off smoothly.  Truly good people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r435616495-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>435616495</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Needs an update</t>
+  </si>
+  <si>
+    <t>Hotel is in a good location! Close to DAL and only about 20 minutes from DFW.  IHOP and Waffle House are within walking distance as well as several other restaurants.  The only thing I would suggest for the hotel is to update the rooms.  The rugs have that old hotel smell and look to them and the couches look like something out of 1970something.  If they replaced the rugs and couch (wall paper too) the rooms would have a much more modern, cleaner look to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Linda L, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is in a good location! Close to DAL and only about 20 minutes from DFW.  IHOP and Waffle House are within walking distance as well as several other restaurants.  The only thing I would suggest for the hotel is to update the rooms.  The rugs have that old hotel smell and look to them and the couches look like something out of 1970something.  If they replaced the rugs and couch (wall paper too) the rooms would have a much more modern, cleaner look to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r431344477-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>431344477</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Maids Are Way, Way Too Noisy</t>
+  </si>
+  <si>
+    <t>PROS:1) Front desk - top notch - smart, nice2) Rooms are magnificent - almost better than a Four Seasons - seriously.CONS:1) Maids are the BIG problem here. They talk almost non-stop - yelling in the hallway - it's unbelievable. I blame the housekeeping supervisor. The noise reminds me of a fraternity/sorority environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle E, Guest Relations Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>PROS:1) Front desk - top notch - smart, nice2) Rooms are magnificent - almost better than a Four Seasons - seriously.CONS:1) Maids are the BIG problem here. They talk almost non-stop - yelling in the hallway - it's unbelievable. I blame the housekeeping supervisor. The noise reminds me of a fraternity/sorority environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r424857396-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>424857396</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>We stayed her for a soccer tournament along with our team and it was perfect.  The rooms were very spacious and the beds were very comfy. Kick back was great especially for the 2 complimentary adult drink and the food looked good...tasted okay (spaghetti,salad,baked potatoes)but our kids loved it. The daily free soft drinks and popcorn are perfect when your craving a small snack. Breakfast was amaizng with lots to chose from. Staff was very helpful and very welcoming. Although it was a lil pricy it was totally worth it for all extras! We loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We stayed her for a soccer tournament along with our team and it was perfect.  The rooms were very spacious and the beds were very comfy. Kick back was great especially for the 2 complimentary adult drink and the food looked good...tasted okay (spaghetti,salad,baked potatoes)but our kids loved it. The daily free soft drinks and popcorn are perfect when your craving a small snack. Breakfast was amaizng with lots to chose from. Staff was very helpful and very welcoming. Although it was a lil pricy it was totally worth it for all extras! We loved it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r395657915-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>395657915</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>nice stay for one night on a business trip</t>
+  </si>
+  <si>
+    <t>I booked this hotel for an overnight stay on a business trip as the regular hotels I usually stay in were sold out.  The hotel was fine. Rooms were large and functional and the bathroom was clean.  It was about 10 minutes by Uber to Love field which was convenient. The free WiFi and Breakfast was good.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r392624362-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>392624362</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here.</t>
+  </si>
+  <si>
+    <t>I'm a Marriott Gold member and regularly choose Springhill Suites because I love the brand. This property really damages it. Poor location and grumpy staff. Only 1 of 4 keys unlocked the room. The door wouldn't close properly and had scuff marks near the lock from obvious attempts to break in. The bathroom window, directly facing a gas station, had no shade at all (hello!). No overhead lighting in the room and an interior door wouldn't close. This was an "upgrade" that sure didn't feel like one. Marriott needs to get their name off this place.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r386157197-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>386157197</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>I am a Marriott Platinum Elite member who spends 100+ nights a year at Marriott properties and this is far and away the worse property I have ever stayed at.  
+I booked my room weeks ago for my daughter and I to come into town for 1 night to see a baseball game.  I specifically booked a double.  I called the morning of our stay to inform the staff we would be checking in late (because of the 8:20 start of the Ranger's game) and to verify I would need 2 beds.  I was assured by Jennifer that we were all set.  I mobile checked it during the game to verify we were still checking in.  When we arrived at the property I was told by Miles that they had a problem with some rooms and only had a king room.  After repeatedly telling him that would not work he found a king room with a pull out couch (one of his better rooms).  First, now after a long day my daughter had to sleep in an uncomfortable, lumpy pull out couch instead of a real bed, and secondly the room was a dump.  Paint peeling off the woodwork, threadbare carpet, it looked like a Motel 6.  On top of that Mile made NO EFFORT to apologize for not having a double for us nor did he offer any compensation (points, market items, etc).  
+STAY AWAY FROM THIS PROPERTY AT...I am a Marriott Platinum Elite member who spends 100+ nights a year at Marriott properties and this is far and away the worse property I have ever stayed at.  I booked my room weeks ago for my daughter and I to come into town for 1 night to see a baseball game.  I specifically booked a double.  I called the morning of our stay to inform the staff we would be checking in late (because of the 8:20 start of the Ranger's game) and to verify I would need 2 beds.  I was assured by Jennifer that we were all set.  I mobile checked it during the game to verify we were still checking in.  When we arrived at the property I was told by Miles that they had a problem with some rooms and only had a king room.  After repeatedly telling him that would not work he found a king room with a pull out couch (one of his better rooms).  First, now after a long day my daughter had to sleep in an uncomfortable, lumpy pull out couch instead of a real bed, and secondly the room was a dump.  Paint peeling off the woodwork, threadbare carpet, it looked like a Motel 6.  On top of that Mile made NO EFFORT to apologize for not having a double for us nor did he offer any compensation (points, market items, etc).  STAY AWAY FROM THIS PROPERTY AT ALL COSTS.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a Marriott Platinum Elite member who spends 100+ nights a year at Marriott properties and this is far and away the worse property I have ever stayed at.  
+I booked my room weeks ago for my daughter and I to come into town for 1 night to see a baseball game.  I specifically booked a double.  I called the morning of our stay to inform the staff we would be checking in late (because of the 8:20 start of the Ranger's game) and to verify I would need 2 beds.  I was assured by Jennifer that we were all set.  I mobile checked it during the game to verify we were still checking in.  When we arrived at the property I was told by Miles that they had a problem with some rooms and only had a king room.  After repeatedly telling him that would not work he found a king room with a pull out couch (one of his better rooms).  First, now after a long day my daughter had to sleep in an uncomfortable, lumpy pull out couch instead of a real bed, and secondly the room was a dump.  Paint peeling off the woodwork, threadbare carpet, it looked like a Motel 6.  On top of that Mile made NO EFFORT to apologize for not having a double for us nor did he offer any compensation (points, market items, etc).  
+STAY AWAY FROM THIS PROPERTY AT...I am a Marriott Platinum Elite member who spends 100+ nights a year at Marriott properties and this is far and away the worse property I have ever stayed at.  I booked my room weeks ago for my daughter and I to come into town for 1 night to see a baseball game.  I specifically booked a double.  I called the morning of our stay to inform the staff we would be checking in late (because of the 8:20 start of the Ranger's game) and to verify I would need 2 beds.  I was assured by Jennifer that we were all set.  I mobile checked it during the game to verify we were still checking in.  When we arrived at the property I was told by Miles that they had a problem with some rooms and only had a king room.  After repeatedly telling him that would not work he found a king room with a pull out couch (one of his better rooms).  First, now after a long day my daughter had to sleep in an uncomfortable, lumpy pull out couch instead of a real bed, and secondly the room was a dump.  Paint peeling off the woodwork, threadbare carpet, it looked like a Motel 6.  On top of that Mile made NO EFFORT to apologize for not having a double for us nor did he offer any compensation (points, market items, etc).  STAY AWAY FROM THIS PROPERTY AT ALL COSTS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r372545103-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>372545103</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>I won't be back</t>
+  </si>
+  <si>
+    <t>This hotel needs to be completely refurbished. The kitchen, bathroom, and furniture are dated. There is no charging station in the bedrooms.  Since these are suites, this means all of my charging for all of my devices must to be done in the living room area. This is completely unacceptable in the 21st-century! I and others from my company will not stay here in the future. If I had needed to stay more than one night, I would have checked out.I want my money back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>rguti129, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded May 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2016</t>
+  </si>
+  <si>
+    <t>This hotel needs to be completely refurbished. The kitchen, bathroom, and furniture are dated. There is no charging station in the bedrooms.  Since these are suites, this means all of my charging for all of my devices must to be done in the living room area. This is completely unacceptable in the 21st-century! I and others from my company will not stay here in the future. If I had needed to stay more than one night, I would have checked out.I want my money back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r361903372-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>361903372</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Nice Staff but not great location</t>
+  </si>
+  <si>
+    <t>The hotel staff is very nice and breakfast was good, but the location is just not very nice.  There is no place to walk to that I would recommend.   On the main road along this spot you will find lots of semi trucks parked waiting to unload somewhere in the area.   I did work out here but none of the TVs worked on the work out machines.  I don't recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>rguti129, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded April 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2016</t>
+  </si>
+  <si>
+    <t>The hotel staff is very nice and breakfast was good, but the location is just not very nice.  There is no place to walk to that I would recommend.   On the main road along this spot you will find lots of semi trucks parked waiting to unload somewhere in the area.   I did work out here but none of the TVs worked on the work out machines.  I don't recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r358019458-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>358019458</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Perfect location for being near the airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here on a Friday night and flew out of Dallas Love Saturday morning. It was perfect and met our needs. They have a complimentary shuttle that saved us at least $50.00 dollars in transportation to and from the airport. The breakfast in the morning was good as well. Our room had everything we needed and it stayed cool all night. We will definitely stay again if flying out of Dallas Love Airport. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r339589101-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>339589101</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Good place for layover</t>
+  </si>
+  <si>
+    <t>It appears that this is another property acquired by Marriott from another chain.  Marriott has clearly improved the property, but newly built SpringHill Suites tend to be above average.  The service at this property is very good and the staff does the best that it can with the property.  If near Love Field, this is the right place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>rguti129, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>It appears that this is another property acquired by Marriott from another chain.  Marriott has clearly improved the property, but newly built SpringHill Suites tend to be above average.  The service at this property is very good and the staff does the best that it can with the property.  If near Love Field, this is the right place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r336531254-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>336531254</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>Chose this hotel because of it is close to Dallas/love field airport, and also because it advertises a free shuttle to and from the airport starting at 4:00am. On arriving and checking in there was a sign staying that due to the Holidays they canceled the shuttle service. This left us having to extend the rent of our car another day which cost approximately $40. The person at the front desk was not very apologetic and couldn't offer is any other choices. I use Marriot for all my business trips and on the current vacation spent 9 nights at Marriots and am an elite Marriot member. I will however never stay at this particular SpringHills's location ever again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chose this hotel because of it is close to Dallas/love field airport, and also because it advertises a free shuttle to and from the airport starting at 4:00am. On arriving and checking in there was a sign staying that due to the Holidays they canceled the shuttle service. This left us having to extend the rent of our car another day which cost approximately $40. The person at the front desk was not very apologetic and couldn't offer is any other choices. I use Marriot for all my business trips and on the current vacation spent 9 nights at Marriots and am an elite Marriot member. I will however never stay at this particular SpringHills's location ever again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r329750601-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>329750601</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Close to DAL Love field</t>
+  </si>
+  <si>
+    <t>This hotel is very convenient to the DAL Love field and you have lots of options for restaurants but you will a car that would be the best, the hotel does have a shuttle but I had my own car. Nice clean rooms. The wifi worked pretty good. Friendly front desk staff too.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r326540906-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>326540906</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Debit card users beware!</t>
+  </si>
+  <si>
+    <t>Overall our stay was actually not that bad, but I did want to address a few issues if management happens to catch this review. 
+First, for anyone thinking about staying, here were the positives:
+Breakfast was great
+Hotel was CLEAN - they were always cleaning. Awesome job
+Indoor Hot Tub was a nice bonus
+Nice workout room with new equipment
+Rooms were pretty nice, with the exception of a noticeable "musty" smell that didn't go away (more on that later)
+Location was great - right off the Interstate and close to lots of food. 
+A few issues that we would like to bring up that unfortunately will send us to another Marriott property next time:
+1. The smell - The 2 nights we stayed, we could not get over the smell every time we walked into our room. My wife was convinced it was mold, it very well could have just been musty/humid air. We called the front desk and the very friendly staff gave us another room, but the odor was the same. We are definitely not picky people and can handle a little smell from time to time, but this was pretty noticeable. I honestly don't know if it was just the humid air or if there was something else going on. 
+2. Debit card policy - We stayed for 2 nights and were charged $458 for a $208 stay. Obviously something is wrong here. Most hotels have...Overall our stay was actually not that bad, but I did want to address a few issues if management happens to catch this review. First, for anyone thinking about staying, here were the positives:Breakfast was greatHotel was CLEAN - they were always cleaning. Awesome jobIndoor Hot Tub was a nice bonusNice workout room with new equipmentRooms were pretty nice, with the exception of a noticeable "musty" smell that didn't go away (more on that later)Location was great - right off the Interstate and close to lots of food. A few issues that we would like to bring up that unfortunately will send us to another Marriott property next time:1. The smell - The 2 nights we stayed, we could not get over the smell every time we walked into our room. My wife was convinced it was mold, it very well could have just been musty/humid air. We called the front desk and the very friendly staff gave us another room, but the odor was the same. We are definitely not picky people and can handle a little smell from time to time, but this was pretty noticeable. I honestly don't know if it was just the humid air or if there was something else going on. 2. Debit card policy - We stayed for 2 nights and were charged $458 for a $208 stay. Obviously something is wrong here. Most hotels have a policy that states they will pre-authorize your debit card for the full room stay + tax &amp; incidentals, so you can expect that you will have a slightly higher amount held on your card for up to a week after you check out. Not a big deal. What is a huge deal to me is that our debit card was pre-authorized for the amount of $250 for our 2 night stay, which was well over the quoted price, and then when we checked out our debit card was charged AGAIN for the actual amount of the stay - $208, with the original $250 still being held from our account. We were charged over double the price to stay 2 nights at a Springhill Suites, can you see where this would be frustrating? Yes, we will get the original pre-auth amount back, but I am guessing that most travelers would not agree to such terms if they knew up front. I did call the hotel and speak to an employee, who kept telling me that there was nothing he could do, that it was an automated system that does this. I kindly told him that I have stayed at hotel properties all over the country with my debit card, and I have never had a double charge on my card like that - it's always been the higher pre-auth amount and it just stuck on our account for a few days after we checked out until the final amount had cleared. In this case, the hotel should have used our original $250 that was pre-authorized and not charged our card again for an additional $208 - but somehow it did. At the end of the day, it wasn't a huge deal, but I really don't like that the hotel charged us over double the rate just to stay with them for 2 days and then lock that amount up for another week. We will try another Springhil in the area next time we visit. The staff were very kind and respectful, and again no issues with our stay other than the ones listed above. Thanks for your time - hope management is reading this and could check into the debit card thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>rguti129, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Overall our stay was actually not that bad, but I did want to address a few issues if management happens to catch this review. 
+First, for anyone thinking about staying, here were the positives:
+Breakfast was great
+Hotel was CLEAN - they were always cleaning. Awesome job
+Indoor Hot Tub was a nice bonus
+Nice workout room with new equipment
+Rooms were pretty nice, with the exception of a noticeable "musty" smell that didn't go away (more on that later)
+Location was great - right off the Interstate and close to lots of food. 
+A few issues that we would like to bring up that unfortunately will send us to another Marriott property next time:
+1. The smell - The 2 nights we stayed, we could not get over the smell every time we walked into our room. My wife was convinced it was mold, it very well could have just been musty/humid air. We called the front desk and the very friendly staff gave us another room, but the odor was the same. We are definitely not picky people and can handle a little smell from time to time, but this was pretty noticeable. I honestly don't know if it was just the humid air or if there was something else going on. 
+2. Debit card policy - We stayed for 2 nights and were charged $458 for a $208 stay. Obviously something is wrong here. Most hotels have...Overall our stay was actually not that bad, but I did want to address a few issues if management happens to catch this review. First, for anyone thinking about staying, here were the positives:Breakfast was greatHotel was CLEAN - they were always cleaning. Awesome jobIndoor Hot Tub was a nice bonusNice workout room with new equipmentRooms were pretty nice, with the exception of a noticeable "musty" smell that didn't go away (more on that later)Location was great - right off the Interstate and close to lots of food. A few issues that we would like to bring up that unfortunately will send us to another Marriott property next time:1. The smell - The 2 nights we stayed, we could not get over the smell every time we walked into our room. My wife was convinced it was mold, it very well could have just been musty/humid air. We called the front desk and the very friendly staff gave us another room, but the odor was the same. We are definitely not picky people and can handle a little smell from time to time, but this was pretty noticeable. I honestly don't know if it was just the humid air or if there was something else going on. 2. Debit card policy - We stayed for 2 nights and were charged $458 for a $208 stay. Obviously something is wrong here. Most hotels have a policy that states they will pre-authorize your debit card for the full room stay + tax &amp; incidentals, so you can expect that you will have a slightly higher amount held on your card for up to a week after you check out. Not a big deal. What is a huge deal to me is that our debit card was pre-authorized for the amount of $250 for our 2 night stay, which was well over the quoted price, and then when we checked out our debit card was charged AGAIN for the actual amount of the stay - $208, with the original $250 still being held from our account. We were charged over double the price to stay 2 nights at a Springhill Suites, can you see where this would be frustrating? Yes, we will get the original pre-auth amount back, but I am guessing that most travelers would not agree to such terms if they knew up front. I did call the hotel and speak to an employee, who kept telling me that there was nothing he could do, that it was an automated system that does this. I kindly told him that I have stayed at hotel properties all over the country with my debit card, and I have never had a double charge on my card like that - it's always been the higher pre-auth amount and it just stuck on our account for a few days after we checked out until the final amount had cleared. In this case, the hotel should have used our original $250 that was pre-authorized and not charged our card again for an additional $208 - but somehow it did. At the end of the day, it wasn't a huge deal, but I really don't like that the hotel charged us over double the rate just to stay with them for 2 days and then lock that amount up for another week. We will try another Springhil in the area next time we visit. The staff were very kind and respectful, and again no issues with our stay other than the ones listed above. Thanks for your time - hope management is reading this and could check into the debit card thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r320668542-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>320668542</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Good staff, older rooms, not a great area</t>
+  </si>
+  <si>
+    <t>First for the good: The best part is the service to/from airport. I was asked to call as soon as I landed (which I did), and the delightful driver was waiting for me when I exited into the hot, humid August night. It was 1030pm, so I was anxious to get to the hotel to get to sleep for meetings the next days. The front desk staff was also very friendly. Breakfast in the morning was pretty good - the coffee was quite good. Also, free wifi.
+For the negatives: It was a much longer drive from the airport than I expected - 15 minutes or so. The area the hotel is in, that late at night, felt a bit sketchy. The rooms are subpar - this is clearly an old hotel that Marriott bought and transformed into a SpringHill - I'm used to new SpringHIll Suites, so I was disappointed in the room. It was not very nice at all. It also had an old smoke smell, like the hotel before had been smoking. As I said, I arrived at 1030 and there was no where close to to even grab something to eat. There was a laughable sundry - about three frozen meals, a small pint of ice cream and a few snacks, along with soda and water. 
+I am a Marriott Reward member, so always try to stay at Marriotts, but when I come to Dallas again...First for the good: The best part is the service to/from airport. I was asked to call as soon as I landed (which I did), and the delightful driver was waiting for me when I exited into the hot, humid August night. It was 1030pm, so I was anxious to get to the hotel to get to sleep for meetings the next days. The front desk staff was also very friendly. Breakfast in the morning was pretty good - the coffee was quite good. Also, free wifi.For the negatives: It was a much longer drive from the airport than I expected - 15 minutes or so. The area the hotel is in, that late at night, felt a bit sketchy. The rooms are subpar - this is clearly an old hotel that Marriott bought and transformed into a SpringHill - I'm used to new SpringHIll Suites, so I was disappointed in the room. It was not very nice at all. It also had an old smoke smell, like the hotel before had been smoking. As I said, I arrived at 1030 and there was no where close to to even grab something to eat. There was a laughable sundry - about three frozen meals, a small pint of ice cream and a few snacks, along with soda and water. I am a Marriott Reward member, so always try to stay at Marriotts, but when I come to Dallas again I will likely try another Marriott hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>rguti129, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>First for the good: The best part is the service to/from airport. I was asked to call as soon as I landed (which I did), and the delightful driver was waiting for me when I exited into the hot, humid August night. It was 1030pm, so I was anxious to get to the hotel to get to sleep for meetings the next days. The front desk staff was also very friendly. Breakfast in the morning was pretty good - the coffee was quite good. Also, free wifi.
+For the negatives: It was a much longer drive from the airport than I expected - 15 minutes or so. The area the hotel is in, that late at night, felt a bit sketchy. The rooms are subpar - this is clearly an old hotel that Marriott bought and transformed into a SpringHill - I'm used to new SpringHIll Suites, so I was disappointed in the room. It was not very nice at all. It also had an old smoke smell, like the hotel before had been smoking. As I said, I arrived at 1030 and there was no where close to to even grab something to eat. There was a laughable sundry - about three frozen meals, a small pint of ice cream and a few snacks, along with soda and water. 
+I am a Marriott Reward member, so always try to stay at Marriotts, but when I come to Dallas again...First for the good: The best part is the service to/from airport. I was asked to call as soon as I landed (which I did), and the delightful driver was waiting for me when I exited into the hot, humid August night. It was 1030pm, so I was anxious to get to the hotel to get to sleep for meetings the next days. The front desk staff was also very friendly. Breakfast in the morning was pretty good - the coffee was quite good. Also, free wifi.For the negatives: It was a much longer drive from the airport than I expected - 15 minutes or so. The area the hotel is in, that late at night, felt a bit sketchy. The rooms are subpar - this is clearly an old hotel that Marriott bought and transformed into a SpringHill - I'm used to new SpringHIll Suites, so I was disappointed in the room. It was not very nice at all. It also had an old smoke smell, like the hotel before had been smoking. As I said, I arrived at 1030 and there was no where close to to even grab something to eat. There was a laughable sundry - about three frozen meals, a small pint of ice cream and a few snacks, along with soda and water. I am a Marriott Reward member, so always try to stay at Marriotts, but when I come to Dallas again I will likely try another Marriott hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r316588103-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>316588103</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>A good nights stay before an early flight.</t>
+  </si>
+  <si>
+    <t>My wife and I had an early flight out of Love Field and decided to stay as close as we could.  We really like the SpringHill Suites properties so we chose this location.  Their properties are very consistent no matter where you stay.  Good beds, a decent breakfast, in good location.  Quick trip to Love Field.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>rguti129, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I had an early flight out of Love Field and decided to stay as close as we could.  We really like the SpringHill Suites properties so we chose this location.  Their properties are very consistent no matter where you stay.  Good beds, a decent breakfast, in good location.  Quick trip to Love Field.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r310628182-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>310628182</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Needs some upgrades!</t>
+  </si>
+  <si>
+    <t>From the lobby to the rooms, the hotel needs a freshening!  It looks old and outdated.  BUT, it was clean and the bed was comfortable.  Our room was in the very back and was quiet, so no major complaints.  Two tvs--one in the living room section, one in the bedroom.  The lavatory was outside the room with the shower and toilet.  Had a microwave and refrigerator.  They have shuttles to Love Field and will let you keep your car in their lot while you travel for $10 a day (it's free for the nites you stay at the hotel)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>rguti129, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>From the lobby to the rooms, the hotel needs a freshening!  It looks old and outdated.  BUT, it was clean and the bed was comfortable.  Our room was in the very back and was quiet, so no major complaints.  Two tvs--one in the living room section, one in the bedroom.  The lavatory was outside the room with the shower and toilet.  Had a microwave and refrigerator.  They have shuttles to Love Field and will let you keep your car in their lot while you travel for $10 a day (it's free for the nites you stay at the hotel)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r309960846-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>309960846</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Not a great hotel.. but i loved that gal in the Dining area!</t>
+  </si>
+  <si>
+    <t>Since this is near the airport, I'm assuming people don't stay here for more than one night which is fairly obvious. The room I stayed in was VERY musty &amp; moldy. My friend asked for a 4:30 am wake up call (which, for anyone who travels frequently, means... YOU BETTER WAKE ME UP, I HAVE AN EARLY FLIGHT!)  No call and she missed the airport transport (and nearly missed her flight).  However, the gal in the dining area was very sweet and helpful - I think the upper management could take a lesson or two from those who work the main areas!MoreShow less</t>
+  </si>
+  <si>
+    <t>Since this is near the airport, I'm assuming people don't stay here for more than one night which is fairly obvious. The room I stayed in was VERY musty &amp; moldy. My friend asked for a 4:30 am wake up call (which, for anyone who travels frequently, means... YOU BETTER WAKE ME UP, I HAVE AN EARLY FLIGHT!)  No call and she missed the airport transport (and nearly missed her flight).  However, the gal in the dining area was very sweet and helpful - I think the upper management could take a lesson or two from those who work the main areas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r304542436-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>304542436</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Loud Pool</t>
+  </si>
+  <si>
+    <t>So, the pool closes at 10pm. I guess that doesn't apply to weekends. Lots of people drinking, dancing around yelling, hootin and hollerin. I called the front desk and was told they would close down the area. Well, going out and telling drunk people to quiet down lasts as long as it takes for the door to close behind you.AWESOME!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>So, the pool closes at 10pm. I guess that doesn't apply to weekends. Lots of people drinking, dancing around yelling, hootin and hollerin. I called the front desk and was told they would close down the area. Well, going out and telling drunk people to quiet down lasts as long as it takes for the door to close behind you.AWESOME!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r290347155-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>290347155</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>GREAT hotel with a GREAT staff!!!!</t>
+  </si>
+  <si>
+    <t>After a horrible experience at another hotel in the area, I checked into this hotel late @ night after midnight.  The staff was very welcoming &amp; got me quickly into an EXTREMELY clean room! Again in the morning the staff was very friendly &amp; very accommodating to help me. This night the hotel was very full - so the parking lot was overcrowded &amp; I had to park next store, which when traveling for work in a large passenger van, I am use to.The hotel was full - but the room was quiet &amp; was easy to rest.STAY HERE FOR SURE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>After a horrible experience at another hotel in the area, I checked into this hotel late @ night after midnight.  The staff was very welcoming &amp; got me quickly into an EXTREMELY clean room! Again in the morning the staff was very friendly &amp; very accommodating to help me. This night the hotel was very full - so the parking lot was overcrowded &amp; I had to park next store, which when traveling for work in a large passenger van, I am use to.The hotel was full - but the room was quiet &amp; was easy to rest.STAY HERE FOR SURE!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r287831421-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>287831421</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>How this property has fallen</t>
+  </si>
+  <si>
+    <t>Having an early morning flight out of Luv Field, I went back to this property which I had a great experience with a couple of years ago.  Unfortunately, it has gone major downhill in the meantime.  I have 3 simple requirements for a decent night's sleep: dark, cool &amp; quiet.  This hotel couldn't deliver on one of them!!Everything has gotten old, the A/C groans, clicks, and grinds even when not cooling.  I'm wondering if there are security issues because the outside is lit up like a stalag and they can't keep that light out of the rooms.  And the A/C works and works, but never cooled off the room.I spoke with the "manager" (I wonder really if he is since there was talk, but no action) to no avail.  I won't be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Having an early morning flight out of Luv Field, I went back to this property which I had a great experience with a couple of years ago.  Unfortunately, it has gone major downhill in the meantime.  I have 3 simple requirements for a decent night's sleep: dark, cool &amp; quiet.  This hotel couldn't deliver on one of them!!Everything has gotten old, the A/C groans, clicks, and grinds even when not cooling.  I'm wondering if there are security issues because the outside is lit up like a stalag and they can't keep that light out of the rooms.  And the A/C works and works, but never cooled off the room.I spoke with the "manager" (I wonder really if he is since there was talk, but no action) to no avail.  I won't be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r286984346-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>286984346</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>comfortable, easy access to IH35</t>
+  </si>
+  <si>
+    <t>the hotel is nicely appointed and has a clean, modern eating area. the breakfast was varied and fresh. there is an IHOP walking distance from the hotel. we were able to get to IH35 easily. the front desk was courteous and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>the hotel is nicely appointed and has a clean, modern eating area. the breakfast was varied and fresh. there is an IHOP walking distance from the hotel. we were able to get to IH35 easily. the front desk was courteous and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r277706780-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>277706780</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Very nice!!</t>
+  </si>
+  <si>
+    <t>Staff was awesome. Loved our room. Spent the weekend with my grandkids. Rained the whole time we were there but still enjoyed our stay. Will definitely be returning on my next trip to Dallas. Breakfast has lots of choices. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Staff was awesome. Loved our room. Spent the weekend with my grandkids. Rained the whole time we were there but still enjoyed our stay. Will definitely be returning on my next trip to Dallas. Breakfast has lots of choices. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r277370249-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>277370249</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Traveling through the area - nice place to stop (by I-35 East)</t>
+  </si>
+  <si>
+    <t>We needed a place to stop while traveling through the area and wanted to avoid the heavy traffic areas. The hotel fit the bill!  Suite had two separate rooms, was clean,  and had a most comfortable bed.  Able to really darken the room, which improved the sleep.  Greater variety at breakfast then we expected.  Staff was super friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed a place to stop while traveling through the area and wanted to avoid the heavy traffic areas. The hotel fit the bill!  Suite had two separate rooms, was clean,  and had a most comfortable bed.  Able to really darken the room, which improved the sleep.  Greater variety at breakfast then we expected.  Staff was super friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r274887727-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>274887727</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Good hotel for the purpose...</t>
+  </si>
+  <si>
+    <t>Stayed here for a recent business trip to the area. Located very close to Dallas Love Field airport. It was well positioned. Close to eateries and other convenient spots. Typical Springhill property, pretty good breakfast and some evening eats provided. I will probably stay here again if required. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a recent business trip to the area. Located very close to Dallas Love Field airport. It was well positioned. Close to eateries and other convenient spots. Typical Springhill property, pretty good breakfast and some evening eats provided. I will probably stay here again if required. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r269963833-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>269963833</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Refresh from stress</t>
+  </si>
+  <si>
+    <t>I used this hotel twice in the last 10 days. Pleased with my experience.  I used the shuttle service for the airport, Dart and restaurant run. Everyone was nice. The hotel is clean and smells good.I would gladly return.The whirlpool was great. Sorry the pool wasnt ready.MoreShow less</t>
+  </si>
+  <si>
+    <t>I used this hotel twice in the last 10 days. Pleased with my experience.  I used the shuttle service for the airport, Dart and restaurant run. Everyone was nice. The hotel is clean and smells good.I would gladly return.The whirlpool was great. Sorry the pool wasnt ready.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r267969670-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>267969670</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Good value based on the price paid</t>
+  </si>
+  <si>
+    <t>I stayed here on my way to downtown Dallas. My flight got delayed and so I got in really late, like 12:30 in the morning. The check in process was easy and the room was very nice. There is an outdoor pool on the facility but as the end of April, it is not available yet. There also is a large in-door hot tub. I did not have a chance to try it but it looks very impressive.
+The room was spacious and clean. I had a good night rest here. The breakfast was also nice. It's got everything that I can ask for -- scrambled eggs, sausage patties and oatmeal. There also is a machine for making waffles. The breakfast staff was also friendly and greeted everyone.
+Overall, my stay here is very pleasant. Based on what I paid ($90) I find that I scored on the value dimension. It's a good place to stay.
+The only thing that I can think of is the neighborhood. It's close to the airport and it does look a bit dark at night. When I parked my car, which is past midnight, someone approached me and tried to have a conversation with me. I knew that he was going to ask for money or something and it happened in the parking lot. I hope they can have more well-lit parking lot and have regular patrol. Of course, this really is not fully...I stayed here on my way to downtown Dallas. My flight got delayed and so I got in really late, like 12:30 in the morning. The check in process was easy and the room was very nice. There is an outdoor pool on the facility but as the end of April, it is not available yet. There also is a large in-door hot tub. I did not have a chance to try it but it looks very impressive.The room was spacious and clean. I had a good night rest here. The breakfast was also nice. It's got everything that I can ask for -- scrambled eggs, sausage patties and oatmeal. There also is a machine for making waffles. The breakfast staff was also friendly and greeted everyone.Overall, my stay here is very pleasant. Based on what I paid ($90) I find that I scored on the value dimension. It's a good place to stay.The only thing that I can think of is the neighborhood. It's close to the airport and it does look a bit dark at night. When I parked my car, which is past midnight, someone approached me and tried to have a conversation with me. I knew that he was going to ask for money or something and it happened in the parking lot. I hope they can have more well-lit parking lot and have regular patrol. Of course, this really is not fully under control of the hotel. But I just want to throw it out there. If you stay here be mindful when you are in the parking lot when it is late.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I stayed here on my way to downtown Dallas. My flight got delayed and so I got in really late, like 12:30 in the morning. The check in process was easy and the room was very nice. There is an outdoor pool on the facility but as the end of April, it is not available yet. There also is a large in-door hot tub. I did not have a chance to try it but it looks very impressive.
+The room was spacious and clean. I had a good night rest here. The breakfast was also nice. It's got everything that I can ask for -- scrambled eggs, sausage patties and oatmeal. There also is a machine for making waffles. The breakfast staff was also friendly and greeted everyone.
+Overall, my stay here is very pleasant. Based on what I paid ($90) I find that I scored on the value dimension. It's a good place to stay.
+The only thing that I can think of is the neighborhood. It's close to the airport and it does look a bit dark at night. When I parked my car, which is past midnight, someone approached me and tried to have a conversation with me. I knew that he was going to ask for money or something and it happened in the parking lot. I hope they can have more well-lit parking lot and have regular patrol. Of course, this really is not fully...I stayed here on my way to downtown Dallas. My flight got delayed and so I got in really late, like 12:30 in the morning. The check in process was easy and the room was very nice. There is an outdoor pool on the facility but as the end of April, it is not available yet. There also is a large in-door hot tub. I did not have a chance to try it but it looks very impressive.The room was spacious and clean. I had a good night rest here. The breakfast was also nice. It's got everything that I can ask for -- scrambled eggs, sausage patties and oatmeal. There also is a machine for making waffles. The breakfast staff was also friendly and greeted everyone.Overall, my stay here is very pleasant. Based on what I paid ($90) I find that I scored on the value dimension. It's a good place to stay.The only thing that I can think of is the neighborhood. It's close to the airport and it does look a bit dark at night. When I parked my car, which is past midnight, someone approached me and tried to have a conversation with me. I knew that he was going to ask for money or something and it happened in the parking lot. I hope they can have more well-lit parking lot and have regular patrol. Of course, this really is not fully under control of the hotel. But I just want to throw it out there. If you stay here be mindful when you are in the parking lot when it is late.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r267197160-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>267197160</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Nice and Quiet</t>
+  </si>
+  <si>
+    <t>Our stay here was pleasant with only a couple of  negatives.  Our room was not ready when we arrived shortly after 6PM and there were a couple of others waiting on rooms as well.  The hotel appeared to be full that Friday night and the next morning the breakfast area was overcrowded and they were having trouble keeping up with the demand for breakfast items.  Otherwise our stay was enjoyable and we would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay here was pleasant with only a couple of  negatives.  Our room was not ready when we arrived shortly after 6PM and there were a couple of others waiting on rooms as well.  The hotel appeared to be full that Friday night and the next morning the breakfast area was overcrowded and they were having trouble keeping up with the demand for breakfast items.  Otherwise our stay was enjoyable and we would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r258874733-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>258874733</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Nice property for a decent price.</t>
+  </si>
+  <si>
+    <t>My colleague and I arrived early for our respective reservations - our business appointment was cancelled due to the ice/snow in Dallas.  There were no rooms available when we checked in, our front desk clerk Joshua worked very hard with the cleaning staff and room supervisor to provision a clean room as soon as feasibly possible.  I so appreciate that, as I needed to reclaim sleep.I was pleasantly surprised at having a small living room with a refrigerator, bar sink, etc.  Although I did not use them, I thought it was great bang for the buck.  There are numerous restaurants around the property that you can choose from.  Check-out was very quick and efficient.  If I have a business trip that will take me to Dallas, I would not hesitate to book this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My colleague and I arrived early for our respective reservations - our business appointment was cancelled due to the ice/snow in Dallas.  There were no rooms available when we checked in, our front desk clerk Joshua worked very hard with the cleaning staff and room supervisor to provision a clean room as soon as feasibly possible.  I so appreciate that, as I needed to reclaim sleep.I was pleasantly surprised at having a small living room with a refrigerator, bar sink, etc.  Although I did not use them, I thought it was great bang for the buck.  There are numerous restaurants around the property that you can choose from.  Check-out was very quick and efficient.  If I have a business trip that will take me to Dallas, I would not hesitate to book this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r250502832-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>250502832</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Clean Rooms, Great Breakfast &amp; Nice Property</t>
+  </si>
+  <si>
+    <t>While this is not a brand new property they have done a good job keeping it clean and modernized.  Nice big rooms with microwaves, refrigerator and bar sink.  Good desk with plenty of outlets.     Front desk clerks were extremely nice.  The breakfast crew kept the table cleared and the food well stocked.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>While this is not a brand new property they have done a good job keeping it clean and modernized.  Nice big rooms with microwaves, refrigerator and bar sink.  Good desk with plenty of outlets.     Front desk clerks were extremely nice.  The breakfast crew kept the table cleared and the food well stocked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r249710825-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>249710825</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>First Time at SpringHill Suites</t>
+  </si>
+  <si>
+    <t>As mentioned in another review.  I stay in hotels 70-80 nights each year and after staying with the Hilton brands for a number of years, I have decided to switch to the Marriott brands for 2015.  I wasn't a big fan of this hotel.  In fact, I changed my reservation for the next night from a SpringHill Suites to a Courtyard hoping the experience would be better.  It was.  Nothing really bad to report but the rooms seemed to be dated and the color scheme just a little too psychedelic for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>As mentioned in another review.  I stay in hotels 70-80 nights each year and after staying with the Hilton brands for a number of years, I have decided to switch to the Marriott brands for 2015.  I wasn't a big fan of this hotel.  In fact, I changed my reservation for the next night from a SpringHill Suites to a Courtyard hoping the experience would be better.  It was.  Nothing really bad to report but the rooms seemed to be dated and the color scheme just a little too psychedelic for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r243900226-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>243900226</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>standard place</t>
+  </si>
+  <si>
+    <t>This was just a standard hotel for us.  Nothing special. We stayed on a Saturday night and the place was dead.  Nothing really wrong with it just not a lively hotel I guess.  Breakfast was standard and hot. Pool was closed for seasonMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>This was just a standard hotel for us.  Nothing special. We stayed on a Saturday night and the place was dead.  Nothing really wrong with it just not a lively hotel I guess.  Breakfast was standard and hot. Pool was closed for seasonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r240118404-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>240118404</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>We have nothing but great things to say. Check in was flawless even though we had caught a much earlier flight and arrived around 9am. We were able to get into our room change and get our day started. All, and I mean all the staff, we encountered were very helpful and courteous. Breakfast and coffee were good. Our room, on the first floor, was huge with 2 tv's microwave and a small refrigerator. There is a door that separate the bedroom from the sitting area. The workout room was clean with plenty of towels. There is also a hot tub although we didn't use it the area looked great. The front desk staff made several recommendations for our lunch and dinner needs. We had rented a car so we did not use the shuttle service. A great stay for us in the Dallas love field area and I would not hesitate to stay here again or to recommend to our friends when they are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>We have nothing but great things to say. Check in was flawless even though we had caught a much earlier flight and arrived around 9am. We were able to get into our room change and get our day started. All, and I mean all the staff, we encountered were very helpful and courteous. Breakfast and coffee were good. Our room, on the first floor, was huge with 2 tv's microwave and a small refrigerator. There is a door that separate the bedroom from the sitting area. The workout room was clean with plenty of towels. There is also a hot tub although we didn't use it the area looked great. The front desk staff made several recommendations for our lunch and dinner needs. We had rented a car so we did not use the shuttle service. A great stay for us in the Dallas love field area and I would not hesitate to stay here again or to recommend to our friends when they are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r236807938-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>236807938</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>A NICE MARRIOTT PROPERTY</t>
+  </si>
+  <si>
+    <t>A very clean and quiet property.  Room are plentiful and the staff was excellent.  A great breakfast buffet to start your day off.  A nice touch in the evening is snacks and beverages in the lobby.  Oh, did I mention, it is very close to Dallas Love Field and they run a shuttle.  Many good restuarants are less than a mile away.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>A very clean and quiet property.  Room are plentiful and the staff was excellent.  A great breakfast buffet to start your day off.  A nice touch in the evening is snacks and beverages in the lobby.  Oh, did I mention, it is very close to Dallas Love Field and they run a shuttle.  Many good restuarants are less than a mile away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r233379565-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>233379565</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>Surprising</t>
+  </si>
+  <si>
+    <t>Came here on a buddy trip for a concert and it was a great little place. The front is pretty nondescript and the decore is a overwhelming green. We got to the room and it was huge. The room was nice the bedding was top notch and the hotel is quiet. The staff was pleasant and accommodating and the breakfast is really good. The pool area is nice although the spa is a little dated. This is a good place to stay, you'll be pleasantly surprised. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Came here on a buddy trip for a concert and it was a great little place. The front is pretty nondescript and the decore is a overwhelming green. We got to the room and it was huge. The room was nice the bedding was top notch and the hotel is quiet. The staff was pleasant and accommodating and the breakfast is really good. The pool area is nice although the spa is a little dated. This is a good place to stay, you'll be pleasantly surprised. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r229345442-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>229345442</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here recently for two nights while visiting family in Dallas. This was the second time for us at this hotel so it was an easy choice. I like hotels in the Marriott chain and I've always been pleased with Springhill Suites. This hotel is a little dated, but it's comfortable and clean and the price is very reasonable especially for Dallas. This appears to be an older Springhill Suites so it is probably due for an update. Having said that our family of three had no significant complaints during our stay. The room and amenities were as expected. The location north of the medical district doesn't have a lot of restaurants or other attractions very close by, but it is Dallas so attractions are never far away. Breakfast is typical for a Springhill Suites with eggs, meat, waffles, cereal, etc. My one complaint is that my Rewards point bonus was not posted to my account so I will have to call Marriott to get that corrected - an annoyance that shouldn't happen, but not a fatal flaw. We will return the next time we're visiting family in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here recently for two nights while visiting family in Dallas. This was the second time for us at this hotel so it was an easy choice. I like hotels in the Marriott chain and I've always been pleased with Springhill Suites. This hotel is a little dated, but it's comfortable and clean and the price is very reasonable especially for Dallas. This appears to be an older Springhill Suites so it is probably due for an update. Having said that our family of three had no significant complaints during our stay. The room and amenities were as expected. The location north of the medical district doesn't have a lot of restaurants or other attractions very close by, but it is Dallas so attractions are never far away. Breakfast is typical for a Springhill Suites with eggs, meat, waffles, cereal, etc. My one complaint is that my Rewards point bonus was not posted to my account so I will have to call Marriott to get that corrected - an annoyance that shouldn't happen, but not a fatal flaw. We will return the next time we're visiting family in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r226421712-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>226421712</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We love Marriott and tend to stay at Courtyards when we travel with our family because we feel they're typically family friendly, clean and well run. I booked us at this Spring Hill suites on points before a trip to Dallas and I feel disappointed in the hotel. 
+I don't know the Dallas area very well so I'm not going to review the area so much since I can only make a judgement and it's not incredibly supported. I would have booked in a different area if I had known more and had more hotels available at the time. (I booked 5 days prior to leaving so I didn't have a huge selection.) 
+The hotel lobby seems clean and the staff is touch and go. The night staff was who we had the most interaction with since we were mostly gone during the day, and we had to sometimes repeat requests. 
+The room was a gigantic disappointment. Again, we do not typically stay at SpringHill Suites, so maybe this is typical and I'm making much ado about nothing. It was incredibly small and the ceilings were low. The room felt dingy to me for some reason. It kind of bugged me that the a/c was by the bed and we had cooling issues with the front part of our room. Our door, which was only a slatted door (between the bedroom and living area) didn't even close fully. The door...We love Marriott and tend to stay at Courtyards when we travel with our family because we feel they're typically family friendly, clean and well run. I booked us at this Spring Hill suites on points before a trip to Dallas and I feel disappointed in the hotel. I don't know the Dallas area very well so I'm not going to review the area so much since I can only make a judgement and it's not incredibly supported. I would have booked in a different area if I had known more and had more hotels available at the time. (I booked 5 days prior to leaving so I didn't have a huge selection.) The hotel lobby seems clean and the staff is touch and go. The night staff was who we had the most interaction with since we were mostly gone during the day, and we had to sometimes repeat requests. The room was a gigantic disappointment. Again, we do not typically stay at SpringHill Suites, so maybe this is typical and I'm making much ado about nothing. It was incredibly small and the ceilings were low. The room felt dingy to me for some reason. It kind of bugged me that the a/c was by the bed and we had cooling issues with the front part of our room. Our door, which was only a slatted door (between the bedroom and living area) didn't even close fully. The door seemed warped or something and wasn't able to close. There weren't many amenities, which is fine really, but even what they had was also touch and go. The breakfast was okay, but on our last morning we didn't realize it closed 30 minutes earlier.  Oversight on our part, but when the clock struck 9:30 the women came out and started snapping things up even as we were still serving our plates. I feel that it could have been handled a little differently and still let them remain on schedule. The pool hours are incorrectly listed in the guest book and there were never towels. Also, if your room backs to the pool you should expect a good amount of noise. We heard it from 8:30 am to 10 pm. Internet connection is TERRIBLE! I can't stress enough how bad it is. Even with the Ethernet cord, and the lobby business center is no better. We could not get it on any device on any of the days. Even paying for faster internet one night didn't help. And cell reception is difficult at times also. They directed us to the IT Help number and they were attempting to have is reconfigure things in our computer. But it wasn't just one laptop. Both laptops, tablet and both iPhones couldn't pick up on the internet. The guy we spoke with said he'd call us back and got our cell number. Yet turned around 10 minutes later and called us in our room waking our kids up at 11 PM. I was happy to go home. I think that I should stick with what I know from now on. The hotel wasn't bad but it's not what I'm accustomed to with Marriott. So take this with a grain of salt. MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, Manager at SpringHill Suites Dallas NW Highway at Stemmons/I-35E, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>We love Marriott and tend to stay at Courtyards when we travel with our family because we feel they're typically family friendly, clean and well run. I booked us at this Spring Hill suites on points before a trip to Dallas and I feel disappointed in the hotel. 
+I don't know the Dallas area very well so I'm not going to review the area so much since I can only make a judgement and it's not incredibly supported. I would have booked in a different area if I had known more and had more hotels available at the time. (I booked 5 days prior to leaving so I didn't have a huge selection.) 
+The hotel lobby seems clean and the staff is touch and go. The night staff was who we had the most interaction with since we were mostly gone during the day, and we had to sometimes repeat requests. 
+The room was a gigantic disappointment. Again, we do not typically stay at SpringHill Suites, so maybe this is typical and I'm making much ado about nothing. It was incredibly small and the ceilings were low. The room felt dingy to me for some reason. It kind of bugged me that the a/c was by the bed and we had cooling issues with the front part of our room. Our door, which was only a slatted door (between the bedroom and living area) didn't even close fully. The door...We love Marriott and tend to stay at Courtyards when we travel with our family because we feel they're typically family friendly, clean and well run. I booked us at this Spring Hill suites on points before a trip to Dallas and I feel disappointed in the hotel. I don't know the Dallas area very well so I'm not going to review the area so much since I can only make a judgement and it's not incredibly supported. I would have booked in a different area if I had known more and had more hotels available at the time. (I booked 5 days prior to leaving so I didn't have a huge selection.) The hotel lobby seems clean and the staff is touch and go. The night staff was who we had the most interaction with since we were mostly gone during the day, and we had to sometimes repeat requests. The room was a gigantic disappointment. Again, we do not typically stay at SpringHill Suites, so maybe this is typical and I'm making much ado about nothing. It was incredibly small and the ceilings were low. The room felt dingy to me for some reason. It kind of bugged me that the a/c was by the bed and we had cooling issues with the front part of our room. Our door, which was only a slatted door (between the bedroom and living area) didn't even close fully. The door seemed warped or something and wasn't able to close. There weren't many amenities, which is fine really, but even what they had was also touch and go. The breakfast was okay, but on our last morning we didn't realize it closed 30 minutes earlier.  Oversight on our part, but when the clock struck 9:30 the women came out and started snapping things up even as we were still serving our plates. I feel that it could have been handled a little differently and still let them remain on schedule. The pool hours are incorrectly listed in the guest book and there were never towels. Also, if your room backs to the pool you should expect a good amount of noise. We heard it from 8:30 am to 10 pm. Internet connection is TERRIBLE! I can't stress enough how bad it is. Even with the Ethernet cord, and the lobby business center is no better. We could not get it on any device on any of the days. Even paying for faster internet one night didn't help. And cell reception is difficult at times also. They directed us to the IT Help number and they were attempting to have is reconfigure things in our computer. But it wasn't just one laptop. Both laptops, tablet and both iPhones couldn't pick up on the internet. The guy we spoke with said he'd call us back and got our cell number. Yet turned around 10 minutes later and called us in our room waking our kids up at 11 PM. I was happy to go home. I think that I should stick with what I know from now on. The hotel wasn't bad but it's not what I'm accustomed to with Marriott. So take this with a grain of salt. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r207707178-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>207707178</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable stay!</t>
+  </si>
+  <si>
+    <t>This hotel has a refrigerator, microwave and a separate living room area with a sleeper sofa. This hotel is located less than a mile from restaurant row and a Starbucks is across the street. The bed is very comfortable and provides a good night's sleep. They also provide free breakfast that has some hot items such as waffles, eggs, sausage, and oatmeal. Very decent breakfast for free!! The hotel also offers free wifi (bonus)!I had the king bed and the room is very spacious!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This hotel has a refrigerator, microwave and a separate living room area with a sleeper sofa. This hotel is located less than a mile from restaurant row and a Starbucks is across the street. The bed is very comfortable and provides a good night's sleep. They also provide free breakfast that has some hot items such as waffles, eggs, sausage, and oatmeal. Very decent breakfast for free!! The hotel also offers free wifi (bonus)!I had the king bed and the room is very spacious!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r206063028-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>206063028</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Alright hotel</t>
+  </si>
+  <si>
+    <t>Stayed here one night. Through out the night there were people talking loud and playing loud music all night. I finally had enough and called he front desk to complain at 3:30am. Kind of a deserted area and a little too dark for my liking. Breakfast was mediocre. Eggs were probably powdered because they tasted like plastic. Not enough seating in the breakfast area. Bed was comfy and rooms were cleaned. Would recommend but you can probably get a better hotel for this price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here one night. Through out the night there were people talking loud and playing loud music all night. I finally had enough and called he front desk to complain at 3:30am. Kind of a deserted area and a little too dark for my liking. Breakfast was mediocre. Eggs were probably powdered because they tasted like plastic. Not enough seating in the breakfast area. Bed was comfy and rooms were cleaned. Would recommend but you can probably get a better hotel for this price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r205701580-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>205701580</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Ok hotel-Scarey area!!!!</t>
+  </si>
+  <si>
+    <t>The hotel is clean and functional Along with good service. There is a big liquor store next door and a gentleman's club on the other side of the liquor store. If you are wanting to stay in an area with safe surroundings, this is not it.  If you want a cheap quiet clean stay, this may be for you.  Breakfast was very good. Gym equipment is good also. Outdoor pool out of service for unknown reasonMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is clean and functional Along with good service. There is a big liquor store next door and a gentleman's club on the other side of the liquor store. If you are wanting to stay in an area with safe surroundings, this is not it.  If you want a cheap quiet clean stay, this may be for you.  Breakfast was very good. Gym equipment is good also. Outdoor pool out of service for unknown reasonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r197155306-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>197155306</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>My sister and I stayed one night here before a convention in Dallas. We wished we had stayed there the entire time! The room is spacious with a separate living room, 2 tvs, and plenty of space. Free parking, free wifi and the breakfast was good. I didn't give it a 5 because somehow there were little sugar ants on our nightstand. only about 10 which we killed and didn't see any more, and the breakfast lady took a long time (at least 10 minutes) before she cleaned up the scrambled eggs on the floor, which she even stepped in. gross. But we really enjoyed the room. Location is a bit off the beaten path for the direction we came, but eventually it was not a problem finding it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My sister and I stayed one night here before a convention in Dallas. We wished we had stayed there the entire time! The room is spacious with a separate living room, 2 tvs, and plenty of space. Free parking, free wifi and the breakfast was good. I didn't give it a 5 because somehow there were little sugar ants on our nightstand. only about 10 which we killed and didn't see any more, and the breakfast lady took a long time (at least 10 minutes) before she cleaned up the scrambled eggs on the floor, which she even stepped in. gross. But we really enjoyed the room. Location is a bit off the beaten path for the direction we came, but eventually it was not a problem finding it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r195387335-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>195387335</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Weekend family getaway</t>
+  </si>
+  <si>
+    <t>Want to say this was an awesome hotel.Not hard to get to at all and very quiet area.Staff was friendly and the room was big enough for the 5 of us,with double beds and a seperate area with a couch and 2 32" tv`s in the room.Would stay again for sure and only spent about 130.Not bad at all.Awesome deal with anyone needing extra room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Want to say this was an awesome hotel.Not hard to get to at all and very quiet area.Staff was friendly and the room was big enough for the 5 of us,with double beds and a seperate area with a couch and 2 32" tv`s in the room.Would stay again for sure and only spent about 130.Not bad at all.Awesome deal with anyone needing extra room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r191864781-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>191864781</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>Good Place</t>
+  </si>
+  <si>
+    <t>Close to Love Field with a shuttle. Driver was very nice. Hotel is clean and looks newly refurbished. Room is a good size and comfortable. Towels are small and very thin. The hotel provides breakfast which is very good. Also on some nights they also have a light dinner. Good exercise room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Close to Love Field with a shuttle. Driver was very nice. Hotel is clean and looks newly refurbished. Room is a good size and comfortable. Towels are small and very thin. The hotel provides breakfast which is very good. Also on some nights they also have a light dinner. Good exercise room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r182263673-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>182263673</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>An oasis in a tough part of town</t>
+  </si>
+  <si>
+    <t>I picked this property since I was getting dropped off late one evening and needed to get to Love Field in the morning for a flight (and this property has a shuttle service).  I'm not familiar with area, but suffice it to say, it's pretty rough.  After I got past that fact and walked through the door, I was pleasantly surprised.The staff were great - something I almost expect now from a Marriott property. And the room was outstanding.  It had two rooms; I was close to the elevator which I wasn't thrilled about thinking it would be loud.  But not at all, I didn't hear a thing in the bedroom (which is behind a sitting room area).  The furnishings were a nice combination of comfort and functionality.  They have an evening reception - with light food - and a very good hot breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I picked this property since I was getting dropped off late one evening and needed to get to Love Field in the morning for a flight (and this property has a shuttle service).  I'm not familiar with area, but suffice it to say, it's pretty rough.  After I got past that fact and walked through the door, I was pleasantly surprised.The staff were great - something I almost expect now from a Marriott property. And the room was outstanding.  It had two rooms; I was close to the elevator which I wasn't thrilled about thinking it would be loud.  But not at all, I didn't hear a thing in the bedroom (which is behind a sitting room area).  The furnishings were a nice combination of comfort and functionality.  They have an evening reception - with light food - and a very good hot breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r177273936-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>177273936</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>The hotel is a comfortable and clean place to stay when you're in Dallas.  It's close to both airports and downtown.  Once you learn the roads, it's pretty easy to get to.  The traffic noise from I-35E is a bit noisy, but the sound of the A/C covers it nicely.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>The hotel is a comfortable and clean place to stay when you're in Dallas.  It's close to both airports and downtown.  Once you learn the roads, it's pretty easy to get to.  The traffic noise from I-35E is a bit noisy, but the sound of the A/C covers it nicely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r173844018-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>173844018</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Great Room!</t>
+  </si>
+  <si>
+    <t>Stayed one night and everything was great! We came with friends and requested rooms near each other and the staff quickly put us in rooms next to each other. The rooms were extremely spacious and clean. The breakfast was great and the staff was super helpful and even gave us detailed directions to local restaurants to try out. Convenient to the airport. Good deal for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Stayed one night and everything was great! We came with friends and requested rooms near each other and the staff quickly put us in rooms next to each other. The rooms were extremely spacious and clean. The breakfast was great and the staff was super helpful and even gave us detailed directions to local restaurants to try out. Convenient to the airport. Good deal for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r165259760-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>165259760</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>clean, fresh overpriced</t>
+  </si>
+  <si>
+    <t>There is nothing wrong with this hotel. It is clean and comfortable.  Service is competent but nothing extra.  The location is very convenient, but the neighborhood is a little sketchy.  Takes longer to get to Love Field than you think it will.  However, I feel like this hotel is very overpriced for what you get.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>There is nothing wrong with this hotel. It is clean and comfortable.  Service is competent but nothing extra.  The location is very convenient, but the neighborhood is a little sketchy.  Takes longer to get to Love Field than you think it will.  However, I feel like this hotel is very overpriced for what you get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r160845026-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>160845026</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>I would stay here again.</t>
+  </si>
+  <si>
+    <t>The staff was friendly and efficient. I particularly admired the way the person at the front desk handled a man that was trying to get a shuttle ride to the airport even though he had not been a guest. The man left and a couple staff people walked out with me when I went to my car to make sure he wasn't hanging around in the parking lot. The carpet was a bit worn although it and the rest of the room was clean. The bed was comfortable and the air conditioner was fairly quiet.  I liked the small computer table instead of a coffee table.I thought the location might be either noisy or inconvenient but it was neither. I heard no traffic noise in my room and it turned out to be pretty easy to get to my diverse locations around the city. Marriott can be proud of this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>The staff was friendly and efficient. I particularly admired the way the person at the front desk handled a man that was trying to get a shuttle ride to the airport even though he had not been a guest. The man left and a couple staff people walked out with me when I went to my car to make sure he wasn't hanging around in the parking lot. The carpet was a bit worn although it and the rest of the room was clean. The bed was comfortable and the air conditioner was fairly quiet.  I liked the small computer table instead of a coffee table.I thought the location might be either noisy or inconvenient but it was neither. I heard no traffic noise in my room and it turned out to be pretty easy to get to my diverse locations around the city. Marriott can be proud of this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r157748657-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157748657</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Great for what I needed!</t>
+  </si>
+  <si>
+    <t>This hotel, for my needs for the visit, met and at times exceeded all of my expectations.  The lobby is clean and newly-renovated, and staff are very professional and helpful.  The rooms are wonderfully clean as well, save for a few hairs (merely from the head) I found on the blanket provided for the convenient sofa-bed.  The beds are plenty comfortable, including the aforementioned sofa-bed.  Other niceties included two nicely-sized TVs, one per section of the room, one in the “living room” and, of course, one for the “bedroom”, as well as an empty mini-fridge, which had I not forgotten my drinks in, was something I likely would have greatly appreciated.  As for the bathroom, I did think the sink being located outside of the bath/toilet room was a courteous touch; additionally, the shower worked well and heated up nicely.  One small qualm was that, as far as my diligent eyes could tell, there was nary an A/C vent in the “living room” section, but this wasn’t too much of a problem during my stay as the weather was, oddly, cooperating with me.  
+The free breakfast buffet items looked to be well-cooked and fresh, and the looks on others’ faces confirmed this (I myself only had the oatmeal, which, though not steel-cut, was satisfying and not the least bit underdone); one area I was disappointed with was the tea selection, which only offered two kinds of black tea (not the...This hotel, for my needs for the visit, met and at times exceeded all of my expectations.  The lobby is clean and newly-renovated, and staff are very professional and helpful.  The rooms are wonderfully clean as well, save for a few hairs (merely from the head) I found on the blanket provided for the convenient sofa-bed.  The beds are plenty comfortable, including the aforementioned sofa-bed.  Other niceties included two nicely-sized TVs, one per section of the room, one in the “living room” and, of course, one for the “bedroom”, as well as an empty mini-fridge, which had I not forgotten my drinks in, was something I likely would have greatly appreciated.  As for the bathroom, I did think the sink being located outside of the bath/toilet room was a courteous touch; additionally, the shower worked well and heated up nicely.  One small qualm was that, as far as my diligent eyes could tell, there was nary an A/C vent in the “living room” section, but this wasn’t too much of a problem during my stay as the weather was, oddly, cooperating with me.  The free breakfast buffet items looked to be well-cooked and fresh, and the looks on others’ faces confirmed this (I myself only had the oatmeal, which, though not steel-cut, was satisfying and not the least bit underdone); one area I was disappointed with was the tea selection, which only offered two kinds of black tea (not the best quality teas in their price range, either), I would have loved to at least have a green tea of some sort, and the addition of stevia as a sweetener option.  Overall, this hotel thoroughly met my needs (a warm bed to rest my eyes upon for a few hours before a Latin convention, a nice shower, friendly staff, overall cleanliness, and an adequate breakfast) and exceeded my expectations for one booked via my school.  If you need a nice, place to stay in Dallas for a few nights and have good value in mind, this is a great option!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>This hotel, for my needs for the visit, met and at times exceeded all of my expectations.  The lobby is clean and newly-renovated, and staff are very professional and helpful.  The rooms are wonderfully clean as well, save for a few hairs (merely from the head) I found on the blanket provided for the convenient sofa-bed.  The beds are plenty comfortable, including the aforementioned sofa-bed.  Other niceties included two nicely-sized TVs, one per section of the room, one in the “living room” and, of course, one for the “bedroom”, as well as an empty mini-fridge, which had I not forgotten my drinks in, was something I likely would have greatly appreciated.  As for the bathroom, I did think the sink being located outside of the bath/toilet room was a courteous touch; additionally, the shower worked well and heated up nicely.  One small qualm was that, as far as my diligent eyes could tell, there was nary an A/C vent in the “living room” section, but this wasn’t too much of a problem during my stay as the weather was, oddly, cooperating with me.  
+The free breakfast buffet items looked to be well-cooked and fresh, and the looks on others’ faces confirmed this (I myself only had the oatmeal, which, though not steel-cut, was satisfying and not the least bit underdone); one area I was disappointed with was the tea selection, which only offered two kinds of black tea (not the...This hotel, for my needs for the visit, met and at times exceeded all of my expectations.  The lobby is clean and newly-renovated, and staff are very professional and helpful.  The rooms are wonderfully clean as well, save for a few hairs (merely from the head) I found on the blanket provided for the convenient sofa-bed.  The beds are plenty comfortable, including the aforementioned sofa-bed.  Other niceties included two nicely-sized TVs, one per section of the room, one in the “living room” and, of course, one for the “bedroom”, as well as an empty mini-fridge, which had I not forgotten my drinks in, was something I likely would have greatly appreciated.  As for the bathroom, I did think the sink being located outside of the bath/toilet room was a courteous touch; additionally, the shower worked well and heated up nicely.  One small qualm was that, as far as my diligent eyes could tell, there was nary an A/C vent in the “living room” section, but this wasn’t too much of a problem during my stay as the weather was, oddly, cooperating with me.  The free breakfast buffet items looked to be well-cooked and fresh, and the looks on others’ faces confirmed this (I myself only had the oatmeal, which, though not steel-cut, was satisfying and not the least bit underdone); one area I was disappointed with was the tea selection, which only offered two kinds of black tea (not the best quality teas in their price range, either), I would have loved to at least have a green tea of some sort, and the addition of stevia as a sweetener option.  Overall, this hotel thoroughly met my needs (a warm bed to rest my eyes upon for a few hours before a Latin convention, a nice shower, friendly staff, overall cleanliness, and an adequate breakfast) and exceeded my expectations for one booked via my school.  If you need a nice, place to stay in Dallas for a few nights and have good value in mind, this is a great option!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r152304714-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152304714</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this Spring Hill Suite after flying in to Dallas Love Field.  It was conveniently located to the airport,  We called for the shuttle &amp; were picked up promptly.  The only surprise was that had we arrived later, the shutlle only runs until 10 PM.  Luckily we arrived &amp; had our baggage by 9:30 PM.  The shuttle driver was wonderful and made us feel right at home immediately.
+Upon getting to the hotel we were greeted warmly &amp; we quickly checked in.  The room was wonderful as well.  A nice suite style room with a sitting area, computer desk &amp; tv with a door that could be closed off for privacy from the bedroom area.  The bed was very comfortable, which coming out of my mouth is a good thing as I often have a hard time adjusting to a different bed when away from home.  
+Breakfast was pretty typical hotel breakfast, BUT there were many, many options, including fresh fruit, yogurts, cereals, hot foods, coffee, juices etc.  A great selection that it would be hard for someone not to find something they could eat unless of course you expect restaurant food at a hotel.  
+We had a leisurely day planned, so we checked out late &amp; the desk clerk scheduled someone to take us to the DART rail so we could make our way on our journey to downtown Dallas.  This trip we decided to use public...We stayed at this Spring Hill Suite after flying in to Dallas Love Field.  It was conveniently located to the airport,  We called for the shuttle &amp; were picked up promptly.  The only surprise was that had we arrived later, the shutlle only runs until 10 PM.  Luckily we arrived &amp; had our baggage by 9:30 PM.  The shuttle driver was wonderful and made us feel right at home immediately.Upon getting to the hotel we were greeted warmly &amp; we quickly checked in.  The room was wonderful as well.  A nice suite style room with a sitting area, computer desk &amp; tv with a door that could be closed off for privacy from the bedroom area.  The bed was very comfortable, which coming out of my mouth is a good thing as I often have a hard time adjusting to a different bed when away from home.  Breakfast was pretty typical hotel breakfast, BUT there were many, many options, including fresh fruit, yogurts, cereals, hot foods, coffee, juices etc.  A great selection that it would be hard for someone not to find something they could eat unless of course you expect restaurant food at a hotel.  We had a leisurely day planned, so we checked out late &amp; the desk clerk scheduled someone to take us to the DART rail so we could make our way on our journey to downtown Dallas.  This trip we decided to use public transportation, so it was nice of them to take us to the rail station which was not far from the hotel.  I give this hotel a high rating.  It is nothing posh or plush, but very clean, friendly, customer oriented and all in all, a very good hotel.  If you are looking for an upscale hotel, this is not your choice BUT it is a great hotel in the Marriott chain of hotels.  We have stayed at other Spring Hill Suites in the past &amp; this one is an older Spring Hill Suite. I would highly recommend it for consideration if you need a hotel close to the airport and do not require the newest style of this brand of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this Spring Hill Suite after flying in to Dallas Love Field.  It was conveniently located to the airport,  We called for the shuttle &amp; were picked up promptly.  The only surprise was that had we arrived later, the shutlle only runs until 10 PM.  Luckily we arrived &amp; had our baggage by 9:30 PM.  The shuttle driver was wonderful and made us feel right at home immediately.
+Upon getting to the hotel we were greeted warmly &amp; we quickly checked in.  The room was wonderful as well.  A nice suite style room with a sitting area, computer desk &amp; tv with a door that could be closed off for privacy from the bedroom area.  The bed was very comfortable, which coming out of my mouth is a good thing as I often have a hard time adjusting to a different bed when away from home.  
+Breakfast was pretty typical hotel breakfast, BUT there were many, many options, including fresh fruit, yogurts, cereals, hot foods, coffee, juices etc.  A great selection that it would be hard for someone not to find something they could eat unless of course you expect restaurant food at a hotel.  
+We had a leisurely day planned, so we checked out late &amp; the desk clerk scheduled someone to take us to the DART rail so we could make our way on our journey to downtown Dallas.  This trip we decided to use public...We stayed at this Spring Hill Suite after flying in to Dallas Love Field.  It was conveniently located to the airport,  We called for the shuttle &amp; were picked up promptly.  The only surprise was that had we arrived later, the shutlle only runs until 10 PM.  Luckily we arrived &amp; had our baggage by 9:30 PM.  The shuttle driver was wonderful and made us feel right at home immediately.Upon getting to the hotel we were greeted warmly &amp; we quickly checked in.  The room was wonderful as well.  A nice suite style room with a sitting area, computer desk &amp; tv with a door that could be closed off for privacy from the bedroom area.  The bed was very comfortable, which coming out of my mouth is a good thing as I often have a hard time adjusting to a different bed when away from home.  Breakfast was pretty typical hotel breakfast, BUT there were many, many options, including fresh fruit, yogurts, cereals, hot foods, coffee, juices etc.  A great selection that it would be hard for someone not to find something they could eat unless of course you expect restaurant food at a hotel.  We had a leisurely day planned, so we checked out late &amp; the desk clerk scheduled someone to take us to the DART rail so we could make our way on our journey to downtown Dallas.  This trip we decided to use public transportation, so it was nice of them to take us to the rail station which was not far from the hotel.  I give this hotel a high rating.  It is nothing posh or plush, but very clean, friendly, customer oriented and all in all, a very good hotel.  If you are looking for an upscale hotel, this is not your choice BUT it is a great hotel in the Marriott chain of hotels.  We have stayed at other Spring Hill Suites in the past &amp; this one is an older Spring Hill Suite. I would highly recommend it for consideration if you need a hotel close to the airport and do not require the newest style of this brand of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r149664385-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>149664385</t>
+  </si>
+  <si>
+    <t>01/14/2013</t>
+  </si>
+  <si>
+    <t>Very pleasant experience</t>
+  </si>
+  <si>
+    <t>Flew into Love Field for a quick deal, and the weather got bad and our pilot didn't want to fly out into the weather approaching.  We ended up at this place and found it to be much nicer than expected.  I had never stayed at a Springhill property and I am happy to say I would again.They had a shuttle that drove us a couple of miles to a place for dinner and then the next morning back to our plane at Love Field.  Breakfast was good, everyone was nice.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r142817976-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142817976</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>We wouldn't stay anywhere else!!!</t>
+  </si>
+  <si>
+    <t>My husband and I arrived for Red River Rivalry weekend, shortly after the funeral of his father, a 50 plus rivalry attendee. We also are newlyweds and had not had a real honeymoon.  They made sure our visit was not only pleasant but memorable.  We arrived back to our room to find a bottle of wine, chocolates, a long stem rose and the most beautiful card with expressions of both sympathy and congrats for a long marriage.  The breakfasts were wonderful the hot tub a nice release for our stress and worry, and the staff was helpful on directions and suggestions for our visit. You have earned our business and expressions of graditude!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>My husband and I arrived for Red River Rivalry weekend, shortly after the funeral of his father, a 50 plus rivalry attendee. We also are newlyweds and had not had a real honeymoon.  They made sure our visit was not only pleasant but memorable.  We arrived back to our room to find a bottle of wine, chocolates, a long stem rose and the most beautiful card with expressions of both sympathy and congrats for a long marriage.  The breakfasts were wonderful the hot tub a nice release for our stress and worry, and the staff was helpful on directions and suggestions for our visit. You have earned our business and expressions of graditude!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r134032832-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>134032832</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>False Start</t>
+  </si>
+  <si>
+    <t>Well the trip started great, the reservations were made without a hitch, until we had to find the hotel. The hotel was nested between the blue light district and a popular restaraunt row.
+When I arrived I asked to view room, as I always to do to ensure all was in order, and am I glad I did. 
+I went to room, and was met with a a damp and moldy smell, the beds looked a bit disheveled. I thought I could ignore it, so I turn the a/c on and went down stairs and express my concern about the smell with the front desk clerk. 
+They went back to the room, and she agreed the room was musky and there was a wad of dust near the bed closest to the a/c unit. Maybe the room hadn't been serviced in a while, then I noticed a wad of black material on the floor beneath the ac curtain, and to both of our surprise looks as though someone had left their undergarments!!
+To say, the least she was apologetic and offered me juice compensation ;-), and another room. 
+The male desk clerk looked unphased...
+Anyway, with time and fatigque against us, we opted to stay in another room. The new rooom  smelled of cigarette smoke, the air did not circulate throughout the room, not to mention the ac was noisey and went off and on all night to adjust to...Well the trip started great, the reservations were made without a hitch, until we had to find the hotel. The hotel was nested between the blue light district and a popular restaraunt row.When I arrived I asked to view room, as I always to do to ensure all was in order, and am I glad I did. I went to room, and was met with a a damp and moldy smell, the beds looked a bit disheveled. I thought I could ignore it, so I turn the a/c on and went down stairs and express my concern about the smell with the front desk clerk. They went back to the room, and she agreed the room was musky and there was a wad of dust near the bed closest to the a/c unit. Maybe the room hadn't been serviced in a while, then I noticed a wad of black material on the floor beneath the ac curtain, and to both of our surprise looks as though someone had left their undergarments!!To say, the least she was apologetic and offered me juice compensation ;-), and another room. The male desk clerk looked unphased...Anyway, with time and fatigque against us, we opted to stay in another room. The new rooom  smelled of cigarette smoke, the air did not circulate throughout the room, not to mention the ac was noisey and went off and on all night to adjust to the temperature I guess, but I hardly got any sleep. The beds was so uncomfortable! Next morning, the breakfast was good and the atmosphere nice. The offer free shuttles to airport. All in all, this hotel wasn't the best I'd rank it in the 2.5 range not 3. It needs upgrading, since it can't do much about its location and signs, and skip the carpets it holds too much smells, along with the polyester bed decor, which serves no other purpose but to decorate the floor, as guests swings it out of the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Well the trip started great, the reservations were made without a hitch, until we had to find the hotel. The hotel was nested between the blue light district and a popular restaraunt row.
+When I arrived I asked to view room, as I always to do to ensure all was in order, and am I glad I did. 
+I went to room, and was met with a a damp and moldy smell, the beds looked a bit disheveled. I thought I could ignore it, so I turn the a/c on and went down stairs and express my concern about the smell with the front desk clerk. 
+They went back to the room, and she agreed the room was musky and there was a wad of dust near the bed closest to the a/c unit. Maybe the room hadn't been serviced in a while, then I noticed a wad of black material on the floor beneath the ac curtain, and to both of our surprise looks as though someone had left their undergarments!!
+To say, the least she was apologetic and offered me juice compensation ;-), and another room. 
+The male desk clerk looked unphased...
+Anyway, with time and fatigque against us, we opted to stay in another room. The new rooom  smelled of cigarette smoke, the air did not circulate throughout the room, not to mention the ac was noisey and went off and on all night to adjust to...Well the trip started great, the reservations were made without a hitch, until we had to find the hotel. The hotel was nested between the blue light district and a popular restaraunt row.When I arrived I asked to view room, as I always to do to ensure all was in order, and am I glad I did. I went to room, and was met with a a damp and moldy smell, the beds looked a bit disheveled. I thought I could ignore it, so I turn the a/c on and went down stairs and express my concern about the smell with the front desk clerk. They went back to the room, and she agreed the room was musky and there was a wad of dust near the bed closest to the a/c unit. Maybe the room hadn't been serviced in a while, then I noticed a wad of black material on the floor beneath the ac curtain, and to both of our surprise looks as though someone had left their undergarments!!To say, the least she was apologetic and offered me juice compensation ;-), and another room. The male desk clerk looked unphased...Anyway, with time and fatigque against us, we opted to stay in another room. The new rooom  smelled of cigarette smoke, the air did not circulate throughout the room, not to mention the ac was noisey and went off and on all night to adjust to the temperature I guess, but I hardly got any sleep. The beds was so uncomfortable! Next morning, the breakfast was good and the atmosphere nice. The offer free shuttles to airport. All in all, this hotel wasn't the best I'd rank it in the 2.5 range not 3. It needs upgrading, since it can't do much about its location and signs, and skip the carpets it holds too much smells, along with the polyester bed decor, which serves no other purpose but to decorate the floor, as guests swings it out of the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r131968861-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131968861</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Very nice springhill with great staff</t>
+  </si>
+  <si>
+    <t>Very nice hotel located close to Dallas Love Field with shuttle service.The staff at this hotel are great very helpful. I am a Marriott Rewards Member and have settings on my online account like extra feather pillows, high floor extra towels etc. I have stayed here several time and they always make sure to accommodate my requests prior to arrival. The rooms are very clean and well kept.They offer a social in the evenings with food and drinks available.Anytime I return to this area I will stay at this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel located close to Dallas Love Field with shuttle service.The staff at this hotel are great very helpful. I am a Marriott Rewards Member and have settings on my online account like extra feather pillows, high floor extra towels etc. I have stayed here several time and they always make sure to accommodate my requests prior to arrival. The rooms are very clean and well kept.They offer a social in the evenings with food and drinks available.Anytime I return to this area I will stay at this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r130385730-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130385730</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>i feel warm staying there</t>
+  </si>
+  <si>
+    <t>well, it was my first stop in U.S and i love the breakfast there. A gently lady who helps prepare the food every morning. it is clean and warm. Also the staff is very helpful picking us up or sending us to steak house,thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r118487763-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>118487763</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>Good location and great staff</t>
+  </si>
+  <si>
+    <t>One of the best places to stay just outside of the downtown area. Some of the best resturants and clubs are just down the road.  Will always stay here when I come to Dallas.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r117299852-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>117299852</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>I will never be back</t>
+  </si>
+  <si>
+    <t>The night front desk worker Andrew  is more than beyond rude!!! I will never stop at this Marriott again horrible location and a very old style room for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>The night front desk worker Andrew  is more than beyond rude!!! I will never stop at this Marriott again horrible location and a very old style room for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r115507307-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115507307</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>Great hotel with a good price</t>
+  </si>
+  <si>
+    <t>I travel on business regularly and generally stay in Mariott hotels - mostly The less expensive ones.  The room was good and comfortable.The happy hour was great with good snacks and beer.  The breakfast was also good with eggs and bacon etc.The management was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I travel on business regularly and generally stay in Mariott hotels - mostly The less expensive ones.  The room was good and comfortable.The happy hour was great with good snacks and beer.  The breakfast was also good with eggs and bacon etc.The management was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r89103689-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>89103689</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>2.5 stars at best</t>
+  </si>
+  <si>
+    <t>This is like an older hotel trying to look/feel new and higher-end.  First impression was the main doors into the hotel had to be opened by the employee at the counter, which tells you about the neighborhood I guess.  My room as just ok.  The TV is old-school small CRT, no flat screen LCD or plasma.  The door to the bathroom had obviously been kicked-in at some point, as the door frame was nailed back together and "hidden" with white caulking.  The furniture and fixtures were nice, but the details tell you this was just a quick "renovation".  Thankfully I was only there for 1 night.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r80176221-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>80176221</t>
+  </si>
+  <si>
+    <t>09/19/2010</t>
+  </si>
+  <si>
+    <t>Mediocre rooms in need of updating...</t>
+  </si>
+  <si>
+    <t>Mediocre rooms in need of updating. Terrible neighborhood. Housekeeping overall is poor. There are much better choices in DFW. Avoid this one.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r75494270-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>75494270</t>
+  </si>
+  <si>
+    <t>08/16/2010</t>
+  </si>
+  <si>
+    <t>Tolerance and Forgiveness</t>
+  </si>
+  <si>
+    <t>Needed a room that would accomodate a broadrange age group of children. I was able to stay in aroom that had two queen size beds a pull out couch and a pack and play, with all of this room was still spacious and comfortable. The suite even had a seperate door to give some privacy to the older teen. The hotel was near the highway and only 14 miles from Grapevine Mall and only 5 minutes from lovefield.  We slep well the first night, but in the morning we noticed some young lady had left her contraceptive behind, it looked to be a Mirena, yes you read right a MIRENA. I provided a picture so that you can judge for yourself. I spoke with the staff and the manager and we discussed "human error" conceding this, I forgave and the manager gave a free night stay. This is a good hotel with very professional staff, accomodating and value for the price. I am writing only so that future travelers will check their room more thorougly in the future to prevent any issues like mine. My only hope for the young lady whom the Mirena belonged to, isn't expecting, unexpectedly. (SMILE)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Needed a room that would accomodate a broadrange age group of children. I was able to stay in aroom that had two queen size beds a pull out couch and a pack and play, with all of this room was still spacious and comfortable. The suite even had a seperate door to give some privacy to the older teen. The hotel was near the highway and only 14 miles from Grapevine Mall and only 5 minutes from lovefield.  We slep well the first night, but in the morning we noticed some young lady had left her contraceptive behind, it looked to be a Mirena, yes you read right a MIRENA. I provided a picture so that you can judge for yourself. I spoke with the staff and the manager and we discussed "human error" conceding this, I forgave and the manager gave a free night stay. This is a good hotel with very professional staff, accomodating and value for the price. I am writing only so that future travelers will check their room more thorougly in the future to prevent any issues like mine. My only hope for the young lady whom the Mirena belonged to, isn't expecting, unexpectedly. (SMILE)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r46191166-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>46191166</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Excellent service, appetizers, and cookies. Rooms were spacious.The only criticism is the gym is a little small.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Excellent service, appetizers, and cookies. Rooms were spacious.The only criticism is the gym is a little small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r43834162-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>43834162</t>
+  </si>
+  <si>
+    <t>09/23/2009</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>While located adjacent to I-35W the room was quiet.  Plenty of living space, but the desk area could use better lighting.  Excellent continental breakfast with both hot and cold items.In an area with easy access to major highways and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>While located adjacent to I-35W the room was quiet.  Plenty of living space, but the desk area could use better lighting.  Excellent continental breakfast with both hot and cold items.In an area with easy access to major highways and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r26638335-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>26638335</t>
+  </si>
+  <si>
+    <t>03/22/2009</t>
+  </si>
+  <si>
+    <t>Not a great location</t>
+  </si>
+  <si>
+    <t>The service was fine...the room was nice. It was fairly clean and hotel was well kept. The front elevator was broken when we were there, but not that big of a deal to us. It wasn't the nicest springhill suites we have stayed at, but overall it was okay for a couple of nights. The price determined our stay there.It was NOT in a good area of town. You can easily run into inappropriate activity a couple of streets over as we did. We made sure to park our car in front of the hotel. Just felt it was safer under the lights and where it could be seen.Our room was in the front of the hotel and even with the fan on at night, I could still hear the traffic on I-35. Usually stuff like this doesn't bother me, but for some reason it did this time. I would request a room in the back of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>The service was fine...the room was nice. It was fairly clean and hotel was well kept. The front elevator was broken when we were there, but not that big of a deal to us. It wasn't the nicest springhill suites we have stayed at, but overall it was okay for a couple of nights. The price determined our stay there.It was NOT in a good area of town. You can easily run into inappropriate activity a couple of streets over as we did. We made sure to park our car in front of the hotel. Just felt it was safer under the lights and where it could be seen.Our room was in the front of the hotel and even with the fan on at night, I could still hear the traffic on I-35. Usually stuff like this doesn't bother me, but for some reason it did this time. I would request a room in the back of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r19840703-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>19840703</t>
+  </si>
+  <si>
+    <t>09/06/2008</t>
+  </si>
+  <si>
+    <t>Nice experience</t>
+  </si>
+  <si>
+    <t>Attended a training class at this hotel.  I enjoyed the room, the food and the staff.  I'm not too crazy about the location.  The pool and other amenities were nice.  The evening cookies were delicious.  I will be back for another class and look forward to another comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Attended a training class at this hotel.  I enjoyed the room, the food and the staff.  I'm not too crazy about the location.  The pool and other amenities were nice.  The evening cookies were delicious.  I will be back for another class and look forward to another comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r18739658-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>18739658</t>
+  </si>
+  <si>
+    <t>08/08/2008</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>It was a pleasent stay, I was with my b/f at the time and the beds were comfortable. The staff were friendly, and other services were quick and excellent. I will return here one day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2006</t>
+  </si>
+  <si>
+    <t>It was a pleasent stay, I was with my b/f at the time and the beds were comfortable. The staff were friendly, and other services were quick and excellent. I will return here one day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r14659069-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>14659069</t>
+  </si>
+  <si>
+    <t>03/30/2008</t>
+  </si>
+  <si>
+    <t>Loved the Springs</t>
+  </si>
+  <si>
+    <t>I was at the Springhill Suites Marriott on 23 March 2008 until 28 March 2008: I don't have one bad thing to say. The service, the staff and the hotel were OUTSTANDING!  I have been to several hotels and this one topped the cake. The whole place was nice and clean the rooms were GREAT! I Usually have trouble sleeping when I am not at home but not here I went to sleep and slept all night. I hated to leave when the time came. I found myself waking up Saturday morning (after I had left the hotel) missing it. I was wondering where my breakfast was and later were was my dinner.  I even thought about calling the hotel and asking if Neil or David were in so they could mail me some breakfast. The General Manager Neil was GREAT! David was also GREAT! I work for AAFES and I hope that when we are in Dallas they will always have us stay there. Thanks Springhill Suites Marriott for making this a great experience.Janice MalloryP.S. I was the guest that always wanted fried chicken! Thanks for everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>I was at the Springhill Suites Marriott on 23 March 2008 until 28 March 2008: I don't have one bad thing to say. The service, the staff and the hotel were OUTSTANDING!  I have been to several hotels and this one topped the cake. The whole place was nice and clean the rooms were GREAT! I Usually have trouble sleeping when I am not at home but not here I went to sleep and slept all night. I hated to leave when the time came. I found myself waking up Saturday morning (after I had left the hotel) missing it. I was wondering where my breakfast was and later were was my dinner.  I even thought about calling the hotel and asking if Neil or David were in so they could mail me some breakfast. The General Manager Neil was GREAT! David was also GREAT! I work for AAFES and I hope that when we are in Dallas they will always have us stay there. Thanks Springhill Suites Marriott for making this a great experience.Janice MalloryP.S. I was the guest that always wanted fried chicken! Thanks for everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r11391176-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>11391176</t>
+  </si>
+  <si>
+    <t>12/09/2007</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>My mom was having surgery at the NEARBY UT Southwestern Hospital complex. W/c accessable rooms, King bed in b/r, pullout queen in living room. Fairly quiet until the maids start their tirade in the morning. Nice am buffet. Homeade cookies in the evening. Great staff. Close parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>My mom was having surgery at the NEARBY UT Southwestern Hospital complex. W/c accessable rooms, King bed in b/r, pullout queen in living room. Fairly quiet until the maids start their tirade in the morning. Nice am buffet. Homeade cookies in the evening. Great staff. Close parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r8656130-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>8656130</t>
+  </si>
+  <si>
+    <t>09/03/2007</t>
+  </si>
+  <si>
+    <t>Great place for football fans!</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a preseason game that my husband and I went to while in Dallas. I was a little nervous staying here since the other reviews are kind of old. But what a deal! We got our room for $85 for the night. We had a king sized bed that was a 'suite' with a pullout couch and microwave and fridge. Our room was clean and the bathroom was a good size. The hotel is very close to Cowboys stadium (it was a little tricky getting into the hotel so luckily we had some good maps). The hotel is just one exit away from the red parking lot. The breakfast was ok....I did have some old milk that didn’t taste quite right but once i mentioned it, it was immediately replaced. The pool is outdoor and very nice. The workout facility looked pretty new. The hot tub looked a little dated but was still good.This was an excellent value for its location and I will stay here again :) :)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a preseason game that my husband and I went to while in Dallas. I was a little nervous staying here since the other reviews are kind of old. But what a deal! We got our room for $85 for the night. We had a king sized bed that was a 'suite' with a pullout couch and microwave and fridge. Our room was clean and the bathroom was a good size. The hotel is very close to Cowboys stadium (it was a little tricky getting into the hotel so luckily we had some good maps). The hotel is just one exit away from the red parking lot. The breakfast was ok....I did have some old milk that didn’t taste quite right but once i mentioned it, it was immediately replaced. The pool is outdoor and very nice. The workout facility looked pretty new. The hot tub looked a little dated but was still good.This was an excellent value for its location and I will stay here again :) :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r1751158-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>1751158</t>
+  </si>
+  <si>
+    <t>03/28/2004</t>
+  </si>
+  <si>
+    <t>New rooms &amp; great service!</t>
+  </si>
+  <si>
+    <t>I am a Platinum member of Marriott Rewards program &amp; also a member of other hotel programs, all of which means I travel a lot. I needed a hotel at the last minute &amp; this seemed a central location (&amp; certainly was). I didn't know this was a new Spring Hill when I booked. The owners went out of their way to design &amp; furnish this hotel. WOW! The service was equally outstanding. Rarely have I dealt with a friendlier staff. I normally don't write reviews, but this hotel was deserving. BTW, there are plenty of restaurants &amp; one 30-screen theater w/i 5 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a Platinum member of Marriott Rewards program &amp; also a member of other hotel programs, all of which means I travel a lot. I needed a hotel at the last minute &amp; this seemed a central location (&amp; certainly was). I didn't know this was a new Spring Hill when I booked. The owners went out of their way to design &amp; furnish this hotel. WOW! The service was equally outstanding. Rarely have I dealt with a friendlier staff. I normally don't write reviews, but this hotel was deserving. BTW, there are plenty of restaurants &amp; one 30-screen theater w/i 5 minutes.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2745,6073 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>162</v>
+      </c>
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>246</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>247</v>
+      </c>
+      <c r="X26" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>255</v>
+      </c>
+      <c r="X27" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>263</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>247</v>
+      </c>
+      <c r="X28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>313</v>
+      </c>
+      <c r="X35" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" t="s">
+        <v>326</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>327</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>333</v>
+      </c>
+      <c r="X38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>341</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>342</v>
+      </c>
+      <c r="X39" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>360</v>
+      </c>
+      <c r="X41" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>341</v>
+      </c>
+      <c r="O42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" t="s">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s">
+        <v>372</v>
+      </c>
+      <c r="L43" t="s">
+        <v>373</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>360</v>
+      </c>
+      <c r="X43" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>381</v>
+      </c>
+      <c r="X44" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>380</v>
+      </c>
+      <c r="O45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>381</v>
+      </c>
+      <c r="X45" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>391</v>
+      </c>
+      <c r="J46" t="s">
+        <v>392</v>
+      </c>
+      <c r="K46" t="s">
+        <v>393</v>
+      </c>
+      <c r="L46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>350</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>381</v>
+      </c>
+      <c r="X46" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>397</v>
+      </c>
+      <c r="J47" t="s">
+        <v>398</v>
+      </c>
+      <c r="K47" t="s">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s">
+        <v>400</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>381</v>
+      </c>
+      <c r="X47" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>404</v>
+      </c>
+      <c r="J48" t="s">
+        <v>405</v>
+      </c>
+      <c r="K48" t="s">
+        <v>406</v>
+      </c>
+      <c r="L48" t="s">
+        <v>407</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>401</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>381</v>
+      </c>
+      <c r="X48" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>410</v>
+      </c>
+      <c r="J49" t="s">
+        <v>411</v>
+      </c>
+      <c r="K49" t="s">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s">
+        <v>413</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>401</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>381</v>
+      </c>
+      <c r="X49" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" t="s">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s">
+        <v>419</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>381</v>
+      </c>
+      <c r="X50" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>422</v>
+      </c>
+      <c r="J51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" t="s">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s">
+        <v>425</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>381</v>
+      </c>
+      <c r="X51" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="J52" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
+        <v>432</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>426</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>381</v>
+      </c>
+      <c r="X52" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>439</v>
+      </c>
+      <c r="O53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>381</v>
+      </c>
+      <c r="X53" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>442</v>
+      </c>
+      <c r="J54" t="s">
+        <v>443</v>
+      </c>
+      <c r="K54" t="s">
+        <v>444</v>
+      </c>
+      <c r="L54" t="s">
+        <v>445</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>446</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>381</v>
+      </c>
+      <c r="X54" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>446</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>453</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>461</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>462</v>
+      </c>
+      <c r="X56" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s">
+        <v>469</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>470</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>471</v>
+      </c>
+      <c r="X57" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>474</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>475</v>
+      </c>
+      <c r="J58" t="s">
+        <v>476</v>
+      </c>
+      <c r="K58" t="s">
+        <v>477</v>
+      </c>
+      <c r="L58" t="s">
+        <v>478</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>479</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>480</v>
+      </c>
+      <c r="X58" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>484</v>
+      </c>
+      <c r="J59" t="s">
+        <v>485</v>
+      </c>
+      <c r="K59" t="s">
+        <v>486</v>
+      </c>
+      <c r="L59" t="s">
+        <v>487</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>488</v>
+      </c>
+      <c r="O59" t="s">
+        <v>204</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>480</v>
+      </c>
+      <c r="X59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>490</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>491</v>
+      </c>
+      <c r="J60" t="s">
+        <v>492</v>
+      </c>
+      <c r="K60" t="s">
+        <v>493</v>
+      </c>
+      <c r="L60" t="s">
+        <v>494</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>488</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>480</v>
+      </c>
+      <c r="X60" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>496</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>497</v>
+      </c>
+      <c r="J61" t="s">
+        <v>498</v>
+      </c>
+      <c r="K61" t="s">
+        <v>499</v>
+      </c>
+      <c r="L61" t="s">
+        <v>500</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>501</v>
+      </c>
+      <c r="X61" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>505</v>
+      </c>
+      <c r="J62" t="s">
+        <v>506</v>
+      </c>
+      <c r="K62" t="s">
+        <v>507</v>
+      </c>
+      <c r="L62" t="s">
+        <v>508</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>509</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>480</v>
+      </c>
+      <c r="X62" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>453</v>
+      </c>
+      <c r="X63" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>517</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>518</v>
+      </c>
+      <c r="J64" t="s">
+        <v>519</v>
+      </c>
+      <c r="K64" t="s">
+        <v>520</v>
+      </c>
+      <c r="L64" t="s">
+        <v>521</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>509</v>
+      </c>
+      <c r="O64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>453</v>
+      </c>
+      <c r="X64" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>523</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>524</v>
+      </c>
+      <c r="J65" t="s">
+        <v>525</v>
+      </c>
+      <c r="K65" t="s">
+        <v>526</v>
+      </c>
+      <c r="L65" t="s">
+        <v>527</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>528</v>
+      </c>
+      <c r="O65" t="s">
+        <v>68</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>453</v>
+      </c>
+      <c r="X65" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>530</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>531</v>
+      </c>
+      <c r="J66" t="s">
+        <v>532</v>
+      </c>
+      <c r="K66" t="s">
+        <v>533</v>
+      </c>
+      <c r="L66" t="s">
+        <v>534</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>535</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>453</v>
+      </c>
+      <c r="X66" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>537</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>538</v>
+      </c>
+      <c r="J67" t="s">
+        <v>539</v>
+      </c>
+      <c r="K67" t="s">
+        <v>540</v>
+      </c>
+      <c r="L67" t="s">
+        <v>541</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>542</v>
+      </c>
+      <c r="O67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>453</v>
+      </c>
+      <c r="X67" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>545</v>
+      </c>
+      <c r="J68" t="s">
+        <v>546</v>
+      </c>
+      <c r="K68" t="s">
+        <v>547</v>
+      </c>
+      <c r="L68" t="s">
+        <v>548</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>549</v>
+      </c>
+      <c r="O68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>453</v>
+      </c>
+      <c r="X68" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>552</v>
+      </c>
+      <c r="J69" t="s">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s">
+        <v>555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>556</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>453</v>
+      </c>
+      <c r="X69" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>558</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>559</v>
+      </c>
+      <c r="J70" t="s">
+        <v>560</v>
+      </c>
+      <c r="K70" t="s">
+        <v>561</v>
+      </c>
+      <c r="L70" t="s">
+        <v>562</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>563</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>453</v>
+      </c>
+      <c r="X70" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" t="s">
+        <v>568</v>
+      </c>
+      <c r="L71" t="s">
+        <v>569</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>570</v>
+      </c>
+      <c r="O71" t="s">
+        <v>68</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>453</v>
+      </c>
+      <c r="X71" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>572</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" t="s">
+        <v>575</v>
+      </c>
+      <c r="L72" t="s">
+        <v>576</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>453</v>
+      </c>
+      <c r="X72" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>579</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>580</v>
+      </c>
+      <c r="J73" t="s">
+        <v>581</v>
+      </c>
+      <c r="K73" t="s">
+        <v>582</v>
+      </c>
+      <c r="L73" t="s">
+        <v>583</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>584</v>
+      </c>
+      <c r="O73" t="s">
+        <v>204</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>453</v>
+      </c>
+      <c r="X73" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>586</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>587</v>
+      </c>
+      <c r="J74" t="s">
+        <v>588</v>
+      </c>
+      <c r="K74" t="s">
+        <v>589</v>
+      </c>
+      <c r="L74" t="s">
+        <v>590</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>591</v>
+      </c>
+      <c r="O74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>453</v>
+      </c>
+      <c r="X74" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>593</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>594</v>
+      </c>
+      <c r="J75" t="s">
+        <v>595</v>
+      </c>
+      <c r="K75" t="s">
+        <v>596</v>
+      </c>
+      <c r="L75" t="s">
+        <v>597</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>598</v>
+      </c>
+      <c r="O75" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>599</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>600</v>
+      </c>
+      <c r="J76" t="s">
+        <v>601</v>
+      </c>
+      <c r="K76" t="s">
+        <v>602</v>
+      </c>
+      <c r="L76" t="s">
+        <v>603</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>604</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>453</v>
+      </c>
+      <c r="X76" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>606</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>607</v>
+      </c>
+      <c r="J77" t="s">
+        <v>608</v>
+      </c>
+      <c r="K77" t="s">
+        <v>609</v>
+      </c>
+      <c r="L77" t="s">
+        <v>610</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>611</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>613</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>614</v>
+      </c>
+      <c r="J78" t="s">
+        <v>615</v>
+      </c>
+      <c r="K78" t="s">
+        <v>616</v>
+      </c>
+      <c r="L78" t="s">
+        <v>617</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>618</v>
+      </c>
+      <c r="O78" t="s">
+        <v>68</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>453</v>
+      </c>
+      <c r="X78" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>620</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>621</v>
+      </c>
+      <c r="J79" t="s">
+        <v>622</v>
+      </c>
+      <c r="K79" t="s">
+        <v>623</v>
+      </c>
+      <c r="L79" t="s">
+        <v>624</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>618</v>
+      </c>
+      <c r="O79" t="s">
+        <v>68</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>626</v>
+      </c>
+      <c r="J80" t="s">
+        <v>627</v>
+      </c>
+      <c r="K80" t="s">
+        <v>628</v>
+      </c>
+      <c r="L80" t="s">
+        <v>629</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>630</v>
+      </c>
+      <c r="O80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>631</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>632</v>
+      </c>
+      <c r="J81" t="s">
+        <v>633</v>
+      </c>
+      <c r="K81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L81" t="s">
+        <v>635</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>453</v>
+      </c>
+      <c r="X81" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>637</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>638</v>
+      </c>
+      <c r="J82" t="s">
+        <v>639</v>
+      </c>
+      <c r="K82" t="s">
+        <v>640</v>
+      </c>
+      <c r="L82" t="s">
+        <v>641</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>642</v>
+      </c>
+      <c r="O82" t="s">
+        <v>68</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>453</v>
+      </c>
+      <c r="X82" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>644</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>645</v>
+      </c>
+      <c r="J83" t="s">
+        <v>646</v>
+      </c>
+      <c r="K83" t="s">
+        <v>647</v>
+      </c>
+      <c r="L83" t="s">
+        <v>648</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>649</v>
+      </c>
+      <c r="O83" t="s">
+        <v>68</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>650</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>651</v>
+      </c>
+      <c r="J84" t="s">
+        <v>652</v>
+      </c>
+      <c r="K84" t="s">
+        <v>653</v>
+      </c>
+      <c r="L84" t="s">
+        <v>654</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>655</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>656</v>
+      </c>
+      <c r="J85" t="s">
+        <v>657</v>
+      </c>
+      <c r="K85" t="s">
+        <v>658</v>
+      </c>
+      <c r="L85" t="s">
+        <v>659</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>660</v>
+      </c>
+      <c r="O85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>662</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>663</v>
+      </c>
+      <c r="J86" t="s">
+        <v>664</v>
+      </c>
+      <c r="K86" t="s">
+        <v>665</v>
+      </c>
+      <c r="L86" t="s">
+        <v>666</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>667</v>
+      </c>
+      <c r="O86" t="s">
+        <v>68</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>453</v>
+      </c>
+      <c r="X86" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>669</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>670</v>
+      </c>
+      <c r="J87" t="s">
+        <v>671</v>
+      </c>
+      <c r="K87" t="s">
+        <v>672</v>
+      </c>
+      <c r="L87" t="s">
+        <v>673</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>667</v>
+      </c>
+      <c r="O87" t="s">
+        <v>68</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>453</v>
+      </c>
+      <c r="X87" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>675</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>676</v>
+      </c>
+      <c r="J88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K88" t="s">
+        <v>678</v>
+      </c>
+      <c r="L88" t="s">
+        <v>679</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>680</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>453</v>
+      </c>
+      <c r="X88" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>682</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>683</v>
+      </c>
+      <c r="J89" t="s">
+        <v>684</v>
+      </c>
+      <c r="K89" t="s">
+        <v>685</v>
+      </c>
+      <c r="L89" t="s">
+        <v>686</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>687</v>
+      </c>
+      <c r="O89" t="s">
+        <v>68</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>453</v>
+      </c>
+      <c r="X89" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>689</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>690</v>
+      </c>
+      <c r="J90" t="s">
+        <v>691</v>
+      </c>
+      <c r="K90" t="s">
+        <v>692</v>
+      </c>
+      <c r="L90" t="s">
+        <v>693</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>694</v>
+      </c>
+      <c r="O90" t="s">
+        <v>68</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>453</v>
+      </c>
+      <c r="X90" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>696</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>697</v>
+      </c>
+      <c r="J91" t="s">
+        <v>698</v>
+      </c>
+      <c r="K91" t="s">
+        <v>699</v>
+      </c>
+      <c r="L91" t="s">
+        <v>700</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>701</v>
+      </c>
+      <c r="O91" t="s">
+        <v>68</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>453</v>
+      </c>
+      <c r="X91" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>704</v>
+      </c>
+      <c r="J92" t="s">
+        <v>705</v>
+      </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
+        <v>707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>708</v>
+      </c>
+      <c r="O92" t="s">
+        <v>68</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>453</v>
+      </c>
+      <c r="X92" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>710</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>711</v>
+      </c>
+      <c r="J93" t="s">
+        <v>712</v>
+      </c>
+      <c r="K93" t="s">
+        <v>713</v>
+      </c>
+      <c r="L93" t="s">
+        <v>714</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>715</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>453</v>
+      </c>
+      <c r="X93" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20910</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>717</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>718</v>
+      </c>
+      <c r="J94" t="s">
+        <v>719</v>
+      </c>
+      <c r="K94" t="s">
+        <v>720</v>
+      </c>
+      <c r="L94" t="s">
+        <v>721</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>453</v>
+      </c>
+      <c r="X94" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>722</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_687.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_687.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Roitz</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Good shuttle service to &amp; from Love Field.  Friendly staff.  Restaurants within driving distance.  Area seems ok.  Didn’t eat breakfast.  Room was large 1 br suite and was comfortable.  Average furnishings.  More</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r564883090-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Scott M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r553024344-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>I’ll start with the positive things I noticed about the hotel. The front desk staff is really friendly and helpful. The room was clean for the most part. (curtains and window shades were dirty)On to the cons, this hotel is located between a large liquor store and plasma center. Because of this I do not recommend this hotel for families. I wouldn’t stay at this hotel again if traveling to this area. Seems to be a ton of better optionsMore</t>
   </si>
   <si>
+    <t>Joe L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r540307067-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>I have stayed at this property a few times over the years, the last time 18 months ago. I have to say this property is showing its age along with an outdated look. I also was a bit concerned with the "plasma bank" across the street and the constant flow of people around the property. While I am an avid Marriott Rewards member and fan, this property is not worth the rack rate they are charging. Next time I am in Dallas I will look at other Marriott properties or other chains for my stays on the West side of town.P.S. If you are over 5'8" tall...you will have a hard time fitting under the shower head.More</t>
   </si>
   <si>
+    <t>KC_Donkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r539562877-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>My room was mostly clean, but the leftover food in the fridge was disgusting.  I was only staying overnight and I was looking forward to getting on the morning shuttle to Love Field.  However, the regular hotel shuttle van was out of service, so they were using what appeared to be someone's mini-van as a shuttle.  Since it can only accommodate a handful of people and their luggage, I had to go with Uber.  I get it that vehicles need service, but I expect a Marriott brand to step it up and rent a 15 passenger van from Enterprise or someplace similar.More</t>
   </si>
   <si>
+    <t>LoveKC9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r537981341-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>Staff was nice.  There is the positive.  Air conditioning was only sufficient (at best) in sleeping area.  Turned wall unit down to 65 - should be freezing - cool at best.  Carpet is gross.  Thank goodness I packed flip flops.  First time at SpringHill Suites.  It will be my last. More</t>
   </si>
   <si>
+    <t>R1717</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r533601099-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t>The staff was wonderful.  Especially the Shuttle drivers.  The room was clean.  Breakfast buffet was good.  Shuttle to Love Field a plus.  The rates they had for weekend of Oct 13 &amp; 14 does not match the age and features of the hotel.  Hotel is old, elevator is tight and parking slots are small and limited.  This hotel needs an upgrade if they want to charge high prices.  The area is not the safest.  I was in walking distance of IHOP, but chose to drive because people were drinking and smoking at the front of the parking lot, customers were allowed to smoke in front of side entrance and even a hotel worker was smoking near the front door.  There were other folks standing around IHOP.   It not good when you have to go through smoke to enter the hotel and feel unsafe around the area. 'Nothing" bad happened to me, I would suggest they get a security guard for outside during peak times and change their smoking locations.More</t>
   </si>
   <si>
+    <t>Melissa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r533280966-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>Great to receive the upgrade, but make sure the room is clean. Reception was friendly and accommodating, shuttle is a plus. Bed was as expected.Close to Love Field,  shuttle was a bonus getting to the airport. More</t>
   </si>
   <si>
+    <t>509Martin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r528819041-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>we were here for a week for business at a location nearby. Its location for those sessions was excellent - unfortunately it was well out of town as far as anything else was concerned and it was quite a trek to see anything else. The breakfast was standard - fine - but standard and the rooms were comfy. The freeway turnpike was just across the carpark and so was occasionally very loud. When we arrived on a Sunday night there was no food available and searches of local takeaways proved fruitless - so we went to bed hungry!!! This is a standard corporate hotel  - you get what you expectMore</t>
   </si>
   <si>
+    <t>709MDS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r499928608-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>We found this hotel from Marriott reservations. Said it was close to Love field for our super early flight the next morning. When we pulled up it is around liquor stores and bars just like another review said. We were immediately greeted by the girl at the front desk. She was super nice had everything ready for us just like you expect from Marriott. When we got in our room it had an odor we couldn't tell what it was. Then my daughter noticed a bug on the bed then she went to inspect the other bed and found one under the fitted sheet. We noticed some black dots on the pillows as well. So we decided to not stay there called an Uber to pick us up . I showed pics to the girl at the front and she was very apologetic. I told her we had another place we were staying but weren't comfortable staying there and my room was cancelled. Being a Marriott rewards customer you have certain expectations and that's why I always try to stay with Marriott but this one unfortunately didn't meet those expectations and I didn't feel comfortable staying there with my daughters .More</t>
   </si>
   <si>
+    <t>V4VALOR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r498951533-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>I needed a quick place to stay after a late arriving flight to Dallas.I chose the Springfield Inn due to it's price and availability.The staff is very good. Warm, welcoming and accommodating. The first room I checked into had a moldy smell to it. I immediately informed the front desk and they went to work. They upgraded me to a 2 bedroom suite.The suite was great however it didn't have the updates that the other smaller rooms had.The environment that the hotel is in is not pleasant. My daughter kept asking "What's a Gentleman's Club?"There's a liquor store on one side and an strip club on the other. If you'd prefer not to have your kids learn about the night life I'd recommend finding another hotel.The staff however is great. Breakfast was good, the housekeeping was good, Marriott needs to give this crew a new hotel in a new location as the crew is doing the best they can with that they got.More</t>
   </si>
   <si>
+    <t>Rebecca N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r495205041-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>The front desk was very friendly and accommodating. Breakfast had multiple options. The shuttle drivers were phenomenal!! When my husband and I arrived for our 3 day anniversary weekend our room was clean and air temperature comfortable. The next morning I had just gotten out of the shower when housekeeping knocked on the door. My husband requested them to return in about 30 minutes and received a smile and head nod. This exchange continued for approximately 5 minutes while he continued to receive a smile and head nod and finally a no comprende. We did not receive any towels, Kleenex, toiletries replacements or bed service for the duration of our stay. We did not notify the front desk until we checked out. The location is convenient to Dallas Love Field and many restaurants in the area. I would stay here again.More</t>
   </si>
   <si>
+    <t>Steve K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r487790240-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -486,6 +525,9 @@
     <t>This is an older SHS.  Different than most but it seems to be kept up.  Checked in with no issues and was warmly greeted as a regular Marriott Customer.  Room was ready and all was in working order.  Bed was comfortable and bathroom was clean.While this hotel isn't real far from  restaurants, because of a highway or busy road you need to cross it isn't advisable to walk there.  I didn't have a car (they pick up at the airport DAL) and they told me not to walk.  They offered to take me to one of the local restaurants.  There is an IHOP real close to the hotel and I had lunch there.  Wouldn't  recommend going there as the people are  rude and service was bad.This was a comfortable place and I will return if in the area.More</t>
   </si>
   <si>
+    <t>claire24681012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r486599860-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -513,6 +555,9 @@
     <t>We found this hotel in a pinch after getting stranded at Love Field overnight (thanks, Southwest). If you enjoy staying in a hotel whose neighbors include a liquor store, plasma donation center, and scuzzy IHOP, this is the place for you. Bringing small children here late at night definitely made us question our decision-making abilities. The room itself it was fine. Popcorn ceilings. Just your run-of-the-mill SpringHill Suites. Nothing super fancy or new. I will admit the bed was extremely comfortable and the kids loved the fold-out couch bed. The night we were there the lobby was overrun with drunk 20-year-old women so that was a plus! We waited for an hour at the airport to be picked up by the shuttle after being told it would be "just a minute." It would have been nice to have been informed of their timetable so we could have just gotten an Uber. The breakfast the next morning was fine. The kids didn't notice many of the things that made their parents wary. In a pinch this hotel was fine but I would not stay there long term or if you can plan ahead and find something in a better location.More</t>
   </si>
   <si>
+    <t>Deb_traveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r485108967-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,6 +582,9 @@
     <t>We stayed here twice, the first time in 2015 and we returned this past weekend.  The hotel is reasonable, clean and with good service.   Our room wasn't ready when we arrived a bit early but the manager offered us bottled water and a place to wait.  She also gave us a list of good restaurants in the area if we wanted to have a meal and then return.  Our room was fresh and clean and on the floor we requested.The shuttle service to Dallas Love Field begins at 4:00 am which is better than some of the other nearby hotels.  We had a 6:30 am flight and needed that early ride.  When we came down the shuttle was waiting for us, another bonus.  We did not get a chance to have breakfast but we did enjoy the social hour on Monday evening.More</t>
   </si>
   <si>
+    <t>eer1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r476248517-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>I had called to insure there was a Love Field shuttle for our 7a.m. flight only the read the desk-top sign at check in that said the shuttle begins at 7 on Saturdays.  Whew, no problem, it took us at 5:30.  The shuttle will also take you to nearby restaurants, a big bonus since we turned our car so we wouldn't have to deal with it before our flight.  That said, we are brand loyal because we always know at a Marriott we will have professional staff and a comfortable room.More</t>
   </si>
   <si>
+    <t>LSUFAN67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r469801602-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -588,6 +639,9 @@
     <t>Stayed one night before early flight from DAL.  Hotel is clean and front desk team is professional.  When I arrived to the 1st room I noticed a stale smell like wet rug.  Also adjoining room lock would not lock.  Called front desk and requested to be moved.  Front desk clerk called back and offered to bring key to new room up to me but I declined and went down to get them.  New room was on 1st floor and was ok but still had the smell.  All in all was a good stay and would stay again. More</t>
   </si>
   <si>
+    <t>Kathy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r469573043-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -612,6 +666,9 @@
     <t>Very nice hotel We were very pleased with our short stay in Dallas. The room was very clean and beds were comfortableThe staff at hotel very accommodating. The outdoor pool was closed for winter season but they have a large hot tub next to a nice workout facility The heated whirlpool was a little dingy on the sides and should been cleaned. More</t>
   </si>
   <si>
+    <t>SurieK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r446956589-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>Excellent Stay in Dallas . I was expecting a crazy rush at the Springhill Suites when I arrived but was pleasantly surprised at the attentive desk clerk that checked me in. The lobby looked new and allowed me access to the coffee machines and spacious and well decorated Lounge area.The Breakfast staff were polite friendly and offered me alternates to their standard breakfast array.More</t>
   </si>
   <si>
+    <t>arvin127</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r446955222-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +717,9 @@
     <t>I stayed this hotel and found that the staff are always warm, friendly and willing to go the extra mile.The rooms were clean, fresh linen and all amenities available.  The hotel is located a convenient area and easily visible.More</t>
   </si>
   <si>
+    <t>Hugh P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r446087576-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -681,6 +744,9 @@
     <t>On a business trip to Dallas and arrived late night at Love Field.   Had booked this hotel as they do offer shuttle service.   Upon my very late night arrival, the front desk had the biggest greeting which made my day.   Just for the short time I was there from check in to check out, they went above and beyond my expectations.   Rooms were quiet, plenty of space to get work done and preparation of things for a presentation and a business center to help print out any last minute documents.   Had a well equipped fitness center with cardio and some free weights to stay on your fitness routine.   Nice selection of breakfast options.More</t>
   </si>
   <si>
+    <t>wifeoftexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r444011455-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>Recruiting nearby, I stumbled on this property by accident.  I was building my Marriott points and this was the closest Marriott hotel for the industry I am looking into.  Great staff that cares and went above and beyond for my needs.  I needed color prints, they were there, I needed a decent place to eat, they were there.  I have been back since and the service is the same.  More</t>
   </si>
   <si>
+    <t>Jason L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r443857079-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -726,6 +795,9 @@
     <t>We had a business trip to see a new plant and our warehouse was in the industrial area of Dallas.  But the nearest Marriott, we were able to check in to the Springhill SUites on Stemmons Trail.  As soon as we arrived the people were excellent and professional.  I must say I was quite surprise due to the hotel was in an industrial area but the people were outstanding.  I will return anytime I am in Dallas.More</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r443855156-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -741,6 +813,9 @@
     <t>A nice gem in the middle of industrial Dallas, nice people.  Genuine people with genuine smiles and always very accomodating to everyone.  I have to say thank you to Linda Liebbe, the General Manager was excellent and Lisa Hoover who made sure my meeting and group went off smoothly.  Truly good people.More</t>
   </si>
   <si>
+    <t>Ray A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r435616495-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -768,6 +843,9 @@
     <t>Hotel is in a good location! Close to DAL and only about 20 minutes from DFW.  IHOP and Waffle House are within walking distance as well as several other restaurants.  The only thing I would suggest for the hotel is to update the rooms.  The rugs have that old hotel smell and look to them and the couches look like something out of 1970something.  If they replaced the rugs and couch (wall paper too) the rooms would have a much more modern, cleaner look to it.More</t>
   </si>
   <si>
+    <t>mark g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r431344477-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -792,6 +870,9 @@
     <t>PROS:1) Front desk - top notch - smart, nice2) Rooms are magnificent - almost better than a Four Seasons - seriously.CONS:1) Maids are the BIG problem here. They talk almost non-stop - yelling in the hallway - it's unbelievable. I blame the housekeeping supervisor. The noise reminds me of a fraternity/sorority environment.More</t>
   </si>
   <si>
+    <t>Laura V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r424857396-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -813,6 +894,9 @@
     <t>We stayed her for a soccer tournament along with our team and it was perfect.  The rooms were very spacious and the beds were very comfy. Kick back was great especially for the 2 complimentary adult drink and the food looked good...tasted okay (spaghetti,salad,baked potatoes)but our kids loved it. The daily free soft drinks and popcorn are perfect when your craving a small snack. Breakfast was amaizng with lots to chose from. Staff was very helpful and very welcoming. Although it was a lil pricy it was totally worth it for all extras! We loved it!More</t>
   </si>
   <si>
+    <t>PCTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r395657915-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -831,6 +915,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>c d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r392624362-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -847,6 +934,9 @@
   </si>
   <si>
     <t>June 2016</t>
+  </si>
+  <si>
+    <t>Jim S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r386157197-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -871,6 +961,9 @@
 STAY AWAY FROM THIS PROPERTY AT...I am a Marriott Platinum Elite member who spends 100+ nights a year at Marriott properties and this is far and away the worse property I have ever stayed at.  I booked my room weeks ago for my daughter and I to come into town for 1 night to see a baseball game.  I specifically booked a double.  I called the morning of our stay to inform the staff we would be checking in late (because of the 8:20 start of the Ranger's game) and to verify I would need 2 beds.  I was assured by Jennifer that we were all set.  I mobile checked it during the game to verify we were still checking in.  When we arrived at the property I was told by Miles that they had a problem with some rooms and only had a king room.  After repeatedly telling him that would not work he found a king room with a pull out couch (one of his better rooms).  First, now after a long day my daughter had to sleep in an uncomfortable, lumpy pull out couch instead of a real bed, and secondly the room was a dump.  Paint peeling off the woodwork, threadbare carpet, it looked like a Motel 6.  On top of that Mile made NO EFFORT to apologize for not having a double for us nor did he offer any compensation (points, market items, etc).  STAY AWAY FROM THIS PROPERTY AT ALL COSTS.More</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r372545103-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -898,6 +991,9 @@
     <t>This hotel needs to be completely refurbished. The kitchen, bathroom, and furniture are dated. There is no charging station in the bedrooms.  Since these are suites, this means all of my charging for all of my devices must to be done in the living room area. This is completely unacceptable in the 21st-century! I and others from my company will not stay here in the future. If I had needed to stay more than one night, I would have checked out.I want my money back.More</t>
   </si>
   <si>
+    <t>Tom H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r361903372-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1021,9 @@
     <t>The hotel staff is very nice and breakfast was good, but the location is just not very nice.  There is no place to walk to that I would recommend.   On the main road along this spot you will find lots of semi trucks parked waiting to unload somewhere in the area.   I did work out here but none of the TVs worked on the work out machines.  I don't recommend.More</t>
   </si>
   <si>
+    <t>463_jc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r358019458-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1042,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>50Cal2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r339589101-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1090,9 @@
     <t>Chose this hotel because of it is close to Dallas/love field airport, and also because it advertises a free shuttle to and from the airport starting at 4:00am. On arriving and checking in there was a sign staying that due to the Holidays they canceled the shuttle service. This left us having to extend the rent of our car another day which cost approximately $40. The person at the front desk was not very apologetic and couldn't offer is any other choices. I use Marriot for all my business trips and on the current vacation spent 9 nights at Marriots and am an elite Marriot member. I will however never stay at this particular SpringHills's location ever again. More</t>
   </si>
   <si>
+    <t>DeltaRoadWarrior</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r329750601-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1004,6 +1109,9 @@
   </si>
   <si>
     <t>November 2015</t>
+  </si>
+  <si>
+    <t>sufusimz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r326540906-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -1050,6 +1158,9 @@
 2. Debit card policy - We stayed for 2 nights and were charged $458 for a $208 stay. Obviously something is wrong here. Most hotels have...Overall our stay was actually not that bad, but I did want to address a few issues if management happens to catch this review. First, for anyone thinking about staying, here were the positives:Breakfast was greatHotel was CLEAN - they were always cleaning. Awesome jobIndoor Hot Tub was a nice bonusNice workout room with new equipmentRooms were pretty nice, with the exception of a noticeable "musty" smell that didn't go away (more on that later)Location was great - right off the Interstate and close to lots of food. A few issues that we would like to bring up that unfortunately will send us to another Marriott property next time:1. The smell - The 2 nights we stayed, we could not get over the smell every time we walked into our room. My wife was convinced it was mold, it very well could have just been musty/humid air. We called the front desk and the very friendly staff gave us another room, but the odor was the same. We are definitely not picky people and can handle a little smell from time to time, but this was pretty noticeable. I honestly don't know if it was just the humid air or if there was something else going on. 2. Debit card policy - We stayed for 2 nights and were charged $458 for a $208 stay. Obviously something is wrong here. Most hotels have a policy that states they will pre-authorize your debit card for the full room stay + tax &amp; incidentals, so you can expect that you will have a slightly higher amount held on your card for up to a week after you check out. Not a big deal. What is a huge deal to me is that our debit card was pre-authorized for the amount of $250 for our 2 night stay, which was well over the quoted price, and then when we checked out our debit card was charged AGAIN for the actual amount of the stay - $208, with the original $250 still being held from our account. We were charged over double the price to stay 2 nights at a Springhill Suites, can you see where this would be frustrating? Yes, we will get the original pre-auth amount back, but I am guessing that most travelers would not agree to such terms if they knew up front. I did call the hotel and speak to an employee, who kept telling me that there was nothing he could do, that it was an automated system that does this. I kindly told him that I have stayed at hotel properties all over the country with my debit card, and I have never had a double charge on my card like that - it's always been the higher pre-auth amount and it just stuck on our account for a few days after we checked out until the final amount had cleared. In this case, the hotel should have used our original $250 that was pre-authorized and not charged our card again for an additional $208 - but somehow it did. At the end of the day, it wasn't a huge deal, but I really don't like that the hotel charged us over double the rate just to stay with them for 2 days and then lock that amount up for another week. We will try another Springhil in the area next time we visit. The staff were very kind and respectful, and again no issues with our stay other than the ones listed above. Thanks for your time - hope management is reading this and could check into the debit card thing.More</t>
   </si>
   <si>
+    <t>JHartwig610</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r320668542-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1081,6 +1192,9 @@
 I am a Marriott Reward member, so always try to stay at Marriotts, but when I come to Dallas again...First for the good: The best part is the service to/from airport. I was asked to call as soon as I landed (which I did), and the delightful driver was waiting for me when I exited into the hot, humid August night. It was 1030pm, so I was anxious to get to the hotel to get to sleep for meetings the next days. The front desk staff was also very friendly. Breakfast in the morning was pretty good - the coffee was quite good. Also, free wifi.For the negatives: It was a much longer drive from the airport than I expected - 15 minutes or so. The area the hotel is in, that late at night, felt a bit sketchy. The rooms are subpar - this is clearly an old hotel that Marriott bought and transformed into a SpringHill - I'm used to new SpringHIll Suites, so I was disappointed in the room. It was not very nice at all. It also had an old smoke smell, like the hotel before had been smoking. As I said, I arrived at 1030 and there was no where close to to even grab something to eat. There was a laughable sundry - about three frozen meals, a small pint of ice cream and a few snacks, along with soda and water. I am a Marriott Reward member, so always try to stay at Marriotts, but when I come to Dallas again I will likely try another Marriott hotel.More</t>
   </si>
   <si>
+    <t>davidel57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r316588103-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1108,6 +1222,9 @@
     <t>My wife and I had an early flight out of Love Field and decided to stay as close as we could.  We really like the SpringHill Suites properties so we chose this location.  Their properties are very consistent no matter where you stay.  Good beds, a decent breakfast, in good location.  Quick trip to Love Field.More</t>
   </si>
   <si>
+    <t>susanlQ7554SX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r310628182-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1252,9 @@
     <t>From the lobby to the rooms, the hotel needs a freshening!  It looks old and outdated.  BUT, it was clean and the bed was comfortable.  Our room was in the very back and was quiet, so no major complaints.  Two tvs--one in the living room section, one in the bedroom.  The lavatory was outside the room with the shower and toilet.  Had a microwave and refrigerator.  They have shuttles to Love Field and will let you keep your car in their lot while you travel for $10 a day (it's free for the nites you stay at the hotel)More</t>
   </si>
   <si>
+    <t>Mia V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r309960846-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1273,9 @@
     <t>Since this is near the airport, I'm assuming people don't stay here for more than one night which is fairly obvious. The room I stayed in was VERY musty &amp; moldy. My friend asked for a 4:30 am wake up call (which, for anyone who travels frequently, means... YOU BETTER WAKE ME UP, I HAVE AN EARLY FLIGHT!)  No call and she missed the airport transport (and nearly missed her flight).  However, the gal in the dining area was very sweet and helpful - I think the upper management could take a lesson or two from those who work the main areas!More</t>
   </si>
   <si>
+    <t>Kymberly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r304542436-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1294,9 @@
     <t>So, the pool closes at 10pm. I guess that doesn't apply to weekends. Lots of people drinking, dancing around yelling, hootin and hollerin. I called the front desk and was told they would close down the area. Well, going out and telling drunk people to quiet down lasts as long as it takes for the door to close behind you.AWESOME!!!More</t>
   </si>
   <si>
+    <t>Kim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r290347155-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1324,9 @@
     <t>After a horrible experience at another hotel in the area, I checked into this hotel late @ night after midnight.  The staff was very welcoming &amp; got me quickly into an EXTREMELY clean room! Again in the morning the staff was very friendly &amp; very accommodating to help me. This night the hotel was very full - so the parking lot was overcrowded &amp; I had to park next store, which when traveling for work in a large passenger van, I am use to.The hotel was full - but the room was quiet &amp; was easy to rest.STAY HERE FOR SURE!!!!More</t>
   </si>
   <si>
+    <t>Bill H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r287831421-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1345,9 @@
     <t>Having an early morning flight out of Luv Field, I went back to this property which I had a great experience with a couple of years ago.  Unfortunately, it has gone major downhill in the meantime.  I have 3 simple requirements for a decent night's sleep: dark, cool &amp; quiet.  This hotel couldn't deliver on one of them!!Everything has gotten old, the A/C groans, clicks, and grinds even when not cooling.  I'm wondering if there are security issues because the outside is lit up like a stalag and they can't keep that light out of the rooms.  And the A/C works and works, but never cooled off the room.I spoke with the "manager" (I wonder really if he is since there was talk, but no action) to no avail.  I won't be back!More</t>
   </si>
   <si>
+    <t>road-warri0r10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r286984346-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1366,9 @@
     <t>the hotel is nicely appointed and has a clean, modern eating area. the breakfast was varied and fresh. there is an IHOP walking distance from the hotel. we were able to get to IH35 easily. the front desk was courteous and professional.More</t>
   </si>
   <si>
+    <t>Sammye340</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r277706780-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1390,9 @@
     <t>Staff was awesome. Loved our room. Spent the weekend with my grandkids. Rained the whole time we were there but still enjoyed our stay. Will definitely be returning on my next trip to Dallas. Breakfast has lots of choices. More</t>
   </si>
   <si>
+    <t>Marsha K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r277370249-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1411,9 @@
     <t>We needed a place to stop while traveling through the area and wanted to avoid the heavy traffic areas. The hotel fit the bill!  Suite had two separate rooms, was clean,  and had a most comfortable bed.  Able to really darken the room, which improved the sleep.  Greater variety at breakfast then we expected.  Staff was super friendly.More</t>
   </si>
   <si>
+    <t>KontrolFreak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r274887727-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1432,9 @@
     <t>Stayed here for a recent business trip to the area. Located very close to Dallas Love Field airport. It was well positioned. Close to eateries and other convenient spots. Typical Springhill property, pretty good breakfast and some evening eats provided. I will probably stay here again if required. More</t>
   </si>
   <si>
+    <t>ElizaBeth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r269963833-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1307,6 +1451,9 @@
   </si>
   <si>
     <t>I used this hotel twice in the last 10 days. Pleased with my experience.  I used the shuttle service for the airport, Dart and restaurant run. Everyone was nice. The hotel is clean and smells good.I would gladly return.The whirlpool was great. Sorry the pool wasnt ready.More</t>
+  </si>
+  <si>
+    <t>BHUANG69</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r267969670-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -1336,6 +1483,9 @@
 The only thing that I can think of is the neighborhood. It's close to the airport and it does look a bit dark at night. When I parked my car, which is past midnight, someone approached me and tried to have a conversation with me. I knew that he was going to ask for money or something and it happened in the parking lot. I hope they can have more well-lit parking lot and have regular patrol. Of course, this really is not fully...I stayed here on my way to downtown Dallas. My flight got delayed and so I got in really late, like 12:30 in the morning. The check in process was easy and the room was very nice. There is an outdoor pool on the facility but as the end of April, it is not available yet. There also is a large in-door hot tub. I did not have a chance to try it but it looks very impressive.The room was spacious and clean. I had a good night rest here. The breakfast was also nice. It's got everything that I can ask for -- scrambled eggs, sausage patties and oatmeal. There also is a machine for making waffles. The breakfast staff was also friendly and greeted everyone.Overall, my stay here is very pleasant. Based on what I paid ($90) I find that I scored on the value dimension. It's a good place to stay.The only thing that I can think of is the neighborhood. It's close to the airport and it does look a bit dark at night. When I parked my car, which is past midnight, someone approached me and tried to have a conversation with me. I knew that he was going to ask for money or something and it happened in the parking lot. I hope they can have more well-lit parking lot and have regular patrol. Of course, this really is not fully under control of the hotel. But I just want to throw it out there. If you stay here be mindful when you are in the parking lot when it is late.More</t>
   </si>
   <si>
+    <t>Joseph M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r267197160-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1354,6 +1504,9 @@
     <t>Our stay here was pleasant with only a couple of  negatives.  Our room was not ready when we arrived shortly after 6PM and there were a couple of others waiting on rooms as well.  The hotel appeared to be full that Friday night and the next morning the breakfast area was overcrowded and they were having trouble keeping up with the demand for breakfast items.  Otherwise our stay was enjoyable and we would stay again.More</t>
   </si>
   <si>
+    <t>3amigosmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r258874733-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1528,9 @@
     <t>My colleague and I arrived early for our respective reservations - our business appointment was cancelled due to the ice/snow in Dallas.  There were no rooms available when we checked in, our front desk clerk Joshua worked very hard with the cleaning staff and room supervisor to provision a clean room as soon as feasibly possible.  I so appreciate that, as I needed to reclaim sleep.I was pleasantly surprised at having a small living room with a refrigerator, bar sink, etc.  Although I did not use them, I thought it was great bang for the buck.  There are numerous restaurants around the property that you can choose from.  Check-out was very quick and efficient.  If I have a business trip that will take me to Dallas, I would not hesitate to book this hotel again.More</t>
   </si>
   <si>
+    <t>Kirby J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r250502832-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1552,9 @@
     <t>While this is not a brand new property they have done a good job keeping it clean and modernized.  Nice big rooms with microwaves, refrigerator and bar sink.  Good desk with plenty of outlets.     Front desk clerks were extremely nice.  The breakfast crew kept the table cleared and the food well stocked.More</t>
   </si>
   <si>
+    <t>jimp976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r249710825-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1420,6 +1579,9 @@
     <t>As mentioned in another review.  I stay in hotels 70-80 nights each year and after staying with the Hilton brands for a number of years, I have decided to switch to the Marriott brands for 2015.  I wasn't a big fan of this hotel.  In fact, I changed my reservation for the next night from a SpringHill Suites to a Courtyard hoping the experience would be better.  It was.  Nothing really bad to report but the rooms seemed to be dated and the color scheme just a little too psychedelic for me.More</t>
   </si>
   <si>
+    <t>tallica21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r243900226-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1447,6 +1609,9 @@
     <t>This was just a standard hotel for us.  Nothing special. We stayed on a Saturday night and the place was dead.  Nothing really wrong with it just not a lively hotel I guess.  Breakfast was standard and hot. Pool was closed for seasonMore</t>
   </si>
   <si>
+    <t>Tommy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r240118404-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1474,6 +1639,9 @@
     <t>We have nothing but great things to say. Check in was flawless even though we had caught a much earlier flight and arrived around 9am. We were able to get into our room change and get our day started. All, and I mean all the staff, we encountered were very helpful and courteous. Breakfast and coffee were good. Our room, on the first floor, was huge with 2 tv's microwave and a small refrigerator. There is a door that separate the bedroom from the sitting area. The workout room was clean with plenty of towels. There is also a hot tub although we didn't use it the area looked great. The front desk staff made several recommendations for our lunch and dinner needs. We had rented a car so we did not use the shuttle service. A great stay for us in the Dallas love field area and I would not hesitate to stay here again or to recommend to our friends when they are in the area.More</t>
   </si>
   <si>
+    <t>Hiker1942</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r236807938-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1501,6 +1669,9 @@
     <t>A very clean and quiet property.  Room are plentiful and the staff was excellent.  A great breakfast buffet to start your day off.  A nice touch in the evening is snacks and beverages in the lobby.  Oh, did I mention, it is very close to Dallas Love Field and they run a shuttle.  Many good restuarants are less than a mile away.More</t>
   </si>
   <si>
+    <t>Jon R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r233379565-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1522,6 +1693,9 @@
     <t>Came here on a buddy trip for a concert and it was a great little place. The front is pretty nondescript and the decore is a overwhelming green. We got to the room and it was huge. The room was nice the bedding was top notch and the hotel is quiet. The staff was pleasant and accommodating and the breakfast is really good. The pool area is nice although the spa is a little dated. This is a good place to stay, you'll be pleasantly surprised. More</t>
   </si>
   <si>
+    <t>Keith T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r229345442-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1538,6 +1712,9 @@
   </si>
   <si>
     <t>We stayed here recently for two nights while visiting family in Dallas. This was the second time for us at this hotel so it was an easy choice. I like hotels in the Marriott chain and I've always been pleased with Springhill Suites. This hotel is a little dated, but it's comfortable and clean and the price is very reasonable especially for Dallas. This appears to be an older Springhill Suites so it is probably due for an update. Having said that our family of three had no significant complaints during our stay. The room and amenities were as expected. The location north of the medical district doesn't have a lot of restaurants or other attractions very close by, but it is Dallas so attractions are never far away. Breakfast is typical for a Springhill Suites with eggs, meat, waffles, cereal, etc. My one complaint is that my Rewards point bonus was not posted to my account so I will have to call Marriott to get that corrected - an annoyance that shouldn't happen, but not a fatal flaw. We will return the next time we're visiting family in Dallas.More</t>
+  </si>
+  <si>
+    <t>Amanda M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r226421712-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -1570,6 +1747,9 @@
 The room was a gigantic disappointment. Again, we do not typically stay at SpringHill Suites, so maybe this is typical and I'm making much ado about nothing. It was incredibly small and the ceilings were low. The room felt dingy to me for some reason. It kind of bugged me that the a/c was by the bed and we had cooling issues with the front part of our room. Our door, which was only a slatted door (between the bedroom and living area) didn't even close fully. The door...We love Marriott and tend to stay at Courtyards when we travel with our family because we feel they're typically family friendly, clean and well run. I booked us at this Spring Hill suites on points before a trip to Dallas and I feel disappointed in the hotel. I don't know the Dallas area very well so I'm not going to review the area so much since I can only make a judgement and it's not incredibly supported. I would have booked in a different area if I had known more and had more hotels available at the time. (I booked 5 days prior to leaving so I didn't have a huge selection.) The hotel lobby seems clean and the staff is touch and go. The night staff was who we had the most interaction with since we were mostly gone during the day, and we had to sometimes repeat requests. The room was a gigantic disappointment. Again, we do not typically stay at SpringHill Suites, so maybe this is typical and I'm making much ado about nothing. It was incredibly small and the ceilings were low. The room felt dingy to me for some reason. It kind of bugged me that the a/c was by the bed and we had cooling issues with the front part of our room. Our door, which was only a slatted door (between the bedroom and living area) didn't even close fully. The door seemed warped or something and wasn't able to close. There weren't many amenities, which is fine really, but even what they had was also touch and go. The breakfast was okay, but on our last morning we didn't realize it closed 30 minutes earlier.  Oversight on our part, but when the clock struck 9:30 the women came out and started snapping things up even as we were still serving our plates. I feel that it could have been handled a little differently and still let them remain on schedule. The pool hours are incorrectly listed in the guest book and there were never towels. Also, if your room backs to the pool you should expect a good amount of noise. We heard it from 8:30 am to 10 pm. Internet connection is TERRIBLE! I can't stress enough how bad it is. Even with the Ethernet cord, and the lobby business center is no better. We could not get it on any device on any of the days. Even paying for faster internet one night didn't help. And cell reception is difficult at times also. They directed us to the IT Help number and they were attempting to have is reconfigure things in our computer. But it wasn't just one laptop. Both laptops, tablet and both iPhones couldn't pick up on the internet. The guy we spoke with said he'd call us back and got our cell number. Yet turned around 10 minutes later and called us in our room waking our kids up at 11 PM. I was happy to go home. I think that I should stick with what I know from now on. The hotel wasn't bad but it's not what I'm accustomed to with Marriott. So take this with a grain of salt. More</t>
   </si>
   <si>
+    <t>tdwilliams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r207707178-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1591,6 +1771,9 @@
     <t>This hotel has a refrigerator, microwave and a separate living room area with a sleeper sofa. This hotel is located less than a mile from restaurant row and a Starbucks is across the street. The bed is very comfortable and provides a good night's sleep. They also provide free breakfast that has some hot items such as waffles, eggs, sausage, and oatmeal. Very decent breakfast for free!! The hotel also offers free wifi (bonus)!I had the king bed and the room is very spacious!!More</t>
   </si>
   <si>
+    <t>Venny_Here_and_There</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r206063028-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1609,6 +1792,9 @@
     <t>Stayed here one night. Through out the night there were people talking loud and playing loud music all night. I finally had enough and called he front desk to complain at 3:30am. Kind of a deserted area and a little too dark for my liking. Breakfast was mediocre. Eggs were probably powdered because they tasted like plastic. Not enough seating in the breakfast area. Bed was comfy and rooms were cleaned. Would recommend but you can probably get a better hotel for this price.More</t>
   </si>
   <si>
+    <t>Vacationer9898</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r205701580-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1627,6 +1813,9 @@
     <t>The hotel is clean and functional Along with good service. There is a big liquor store next door and a gentleman's club on the other side of the liquor store. If you are wanting to stay in an area with safe surroundings, this is not it.  If you want a cheap quiet clean stay, this may be for you.  Breakfast was very good. Gym equipment is good also. Outdoor pool out of service for unknown reasonMore</t>
   </si>
   <si>
+    <t>debavaAmarilloTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r197155306-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1837,9 @@
     <t>My sister and I stayed one night here before a convention in Dallas. We wished we had stayed there the entire time! The room is spacious with a separate living room, 2 tvs, and plenty of space. Free parking, free wifi and the breakfast was good. I didn't give it a 5 because somehow there were little sugar ants on our nightstand. only about 10 which we killed and didn't see any more, and the breakfast lady took a long time (at least 10 minutes) before she cleaned up the scrambled eggs on the floor, which she even stepped in. gross. But we really enjoyed the room. Location is a bit off the beaten path for the direction we came, but eventually it was not a problem finding it.More</t>
   </si>
   <si>
+    <t>fitz79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r195387335-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1669,6 +1861,9 @@
     <t>Want to say this was an awesome hotel.Not hard to get to at all and very quiet area.Staff was friendly and the room was big enough for the 5 of us,with double beds and a seperate area with a couch and 2 32" tv`s in the room.Would stay again for sure and only spent about 130.Not bad at all.Awesome deal with anyone needing extra room.More</t>
   </si>
   <si>
+    <t>Brackjr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r191864781-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1732,6 +1927,9 @@
     <t>The hotel is a comfortable and clean place to stay when you're in Dallas.  It's close to both airports and downtown.  Once you learn the roads, it's pretty easy to get to.  The traffic noise from I-35E is a bit noisy, but the sound of the A/C covers it nicely.More</t>
   </si>
   <si>
+    <t>REmom2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r173844018-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1753,6 +1951,9 @@
     <t>Stayed one night and everything was great! We came with friends and requested rooms near each other and the staff quickly put us in rooms next to each other. The rooms were extremely spacious and clean. The breakfast was great and the staff was super helpful and even gave us detailed directions to local restaurants to try out. Convenient to the airport. Good deal for the price.More</t>
   </si>
   <si>
+    <t>dady8tor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r165259760-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1774,6 +1975,9 @@
     <t>There is nothing wrong with this hotel. It is clean and comfortable.  Service is competent but nothing extra.  The location is very convenient, but the neighborhood is a little sketchy.  Takes longer to get to Love Field than you think it will.  However, I feel like this hotel is very overpriced for what you get.More</t>
   </si>
   <si>
+    <t>Cyalexa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r160845026-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +1997,9 @@
   </si>
   <si>
     <t>The staff was friendly and efficient. I particularly admired the way the person at the front desk handled a man that was trying to get a shuttle ride to the airport even though he had not been a guest. The man left and a couple staff people walked out with me when I went to my car to make sure he wasn't hanging around in the parking lot. The carpet was a bit worn although it and the rest of the room was clean. The bed was comfortable and the air conditioner was fairly quiet.  I liked the small computer table instead of a coffee table.I thought the location might be either noisy or inconvenient but it was neither. I heard no traffic noise in my room and it turned out to be pretty easy to get to my diverse locations around the city. Marriott can be proud of this property.More</t>
+  </si>
+  <si>
+    <t>StarbucksGuru14</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r157748657-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -1816,6 +2023,9 @@
   <si>
     <t>This hotel, for my needs for the visit, met and at times exceeded all of my expectations.  The lobby is clean and newly-renovated, and staff are very professional and helpful.  The rooms are wonderfully clean as well, save for a few hairs (merely from the head) I found on the blanket provided for the convenient sofa-bed.  The beds are plenty comfortable, including the aforementioned sofa-bed.  Other niceties included two nicely-sized TVs, one per section of the room, one in the “living room” and, of course, one for the “bedroom”, as well as an empty mini-fridge, which had I not forgotten my drinks in, was something I likely would have greatly appreciated.  As for the bathroom, I did think the sink being located outside of the bath/toilet room was a courteous touch; additionally, the shower worked well and heated up nicely.  One small qualm was that, as far as my diligent eyes could tell, there was nary an A/C vent in the “living room” section, but this wasn’t too much of a problem during my stay as the weather was, oddly, cooperating with me.  
 The free breakfast buffet items looked to be well-cooked and fresh, and the looks on others’ faces confirmed this (I myself only had the oatmeal, which, though not steel-cut, was satisfying and not the least bit underdone); one area I was disappointed with was the tea selection, which only offered two kinds of black tea (not the...This hotel, for my needs for the visit, met and at times exceeded all of my expectations.  The lobby is clean and newly-renovated, and staff are very professional and helpful.  The rooms are wonderfully clean as well, save for a few hairs (merely from the head) I found on the blanket provided for the convenient sofa-bed.  The beds are plenty comfortable, including the aforementioned sofa-bed.  Other niceties included two nicely-sized TVs, one per section of the room, one in the “living room” and, of course, one for the “bedroom”, as well as an empty mini-fridge, which had I not forgotten my drinks in, was something I likely would have greatly appreciated.  As for the bathroom, I did think the sink being located outside of the bath/toilet room was a courteous touch; additionally, the shower worked well and heated up nicely.  One small qualm was that, as far as my diligent eyes could tell, there was nary an A/C vent in the “living room” section, but this wasn’t too much of a problem during my stay as the weather was, oddly, cooperating with me.  The free breakfast buffet items looked to be well-cooked and fresh, and the looks on others’ faces confirmed this (I myself only had the oatmeal, which, though not steel-cut, was satisfying and not the least bit underdone); one area I was disappointed with was the tea selection, which only offered two kinds of black tea (not the best quality teas in their price range, either), I would have loved to at least have a green tea of some sort, and the addition of stevia as a sweetener option.  Overall, this hotel thoroughly met my needs (a warm bed to rest my eyes upon for a few hours before a Latin convention, a nice shower, friendly staff, overall cleanliness, and an adequate breakfast) and exceeded my expectations for one booked via my school.  If you need a nice, place to stay in Dallas for a few nights and have good value in mind, this is a great option!More</t>
+  </si>
+  <si>
+    <t>CalorieY</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r152304714-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -1845,6 +2055,9 @@
 We had a leisurely day planned, so we checked out late &amp; the desk clerk scheduled someone to take us to the DART rail so we could make our way on our journey to downtown Dallas.  This trip we decided to use public...We stayed at this Spring Hill Suite after flying in to Dallas Love Field.  It was conveniently located to the airport,  We called for the shuttle &amp; were picked up promptly.  The only surprise was that had we arrived later, the shutlle only runs until 10 PM.  Luckily we arrived &amp; had our baggage by 9:30 PM.  The shuttle driver was wonderful and made us feel right at home immediately.Upon getting to the hotel we were greeted warmly &amp; we quickly checked in.  The room was wonderful as well.  A nice suite style room with a sitting area, computer desk &amp; tv with a door that could be closed off for privacy from the bedroom area.  The bed was very comfortable, which coming out of my mouth is a good thing as I often have a hard time adjusting to a different bed when away from home.  Breakfast was pretty typical hotel breakfast, BUT there were many, many options, including fresh fruit, yogurts, cereals, hot foods, coffee, juices etc.  A great selection that it would be hard for someone not to find something they could eat unless of course you expect restaurant food at a hotel.  We had a leisurely day planned, so we checked out late &amp; the desk clerk scheduled someone to take us to the DART rail so we could make our way on our journey to downtown Dallas.  This trip we decided to use public transportation, so it was nice of them to take us to the rail station which was not far from the hotel.  I give this hotel a high rating.  It is nothing posh or plush, but very clean, friendly, customer oriented and all in all, a very good hotel.  If you are looking for an upscale hotel, this is not your choice BUT it is a great hotel in the Marriott chain of hotels.  We have stayed at other Spring Hill Suites in the past &amp; this one is an older Spring Hill Suite. I would highly recommend it for consideration if you need a hotel close to the airport and do not require the newest style of this brand of hotel.More</t>
   </si>
   <si>
+    <t>John A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r149664385-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1863,6 +2076,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Gregg G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r142817976-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2098,9 @@
   </si>
   <si>
     <t>My husband and I arrived for Red River Rivalry weekend, shortly after the funeral of his father, a 50 plus rivalry attendee. We also are newlyweds and had not had a real honeymoon.  They made sure our visit was not only pleasant but memorable.  We arrived back to our room to find a bottle of wine, chocolates, a long stem rose and the most beautiful card with expressions of both sympathy and congrats for a long marriage.  The breakfasts were wonderful the hot tub a nice release for our stress and worry, and the staff was helpful on directions and suggestions for our visit. You have earned our business and expressions of graditude!!!More</t>
+  </si>
+  <si>
+    <t>persaude</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r134032832-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -1917,6 +2136,9 @@
 Anyway, with time and fatigque against us, we opted to stay in another room. The new rooom  smelled of cigarette smoke, the air did not circulate throughout the room, not to mention the ac was noisey and went off and on all night to adjust to...Well the trip started great, the reservations were made without a hitch, until we had to find the hotel. The hotel was nested between the blue light district and a popular restaraunt row.When I arrived I asked to view room, as I always to do to ensure all was in order, and am I glad I did. I went to room, and was met with a a damp and moldy smell, the beds looked a bit disheveled. I thought I could ignore it, so I turn the a/c on and went down stairs and express my concern about the smell with the front desk clerk. They went back to the room, and she agreed the room was musky and there was a wad of dust near the bed closest to the a/c unit. Maybe the room hadn't been serviced in a while, then I noticed a wad of black material on the floor beneath the ac curtain, and to both of our surprise looks as though someone had left their undergarments!!To say, the least she was apologetic and offered me juice compensation ;-), and another room. The male desk clerk looked unphased...Anyway, with time and fatigque against us, we opted to stay in another room. The new rooom  smelled of cigarette smoke, the air did not circulate throughout the room, not to mention the ac was noisey and went off and on all night to adjust to the temperature I guess, but I hardly got any sleep. The beds was so uncomfortable! Next morning, the breakfast was good and the atmosphere nice. The offer free shuttles to airport. All in all, this hotel wasn't the best I'd rank it in the 2.5 range not 3. It needs upgrading, since it can't do much about its location and signs, and skip the carpets it holds too much smells, along with the polyester bed decor, which serves no other purpose but to decorate the floor, as guests swings it out of the way.More</t>
   </si>
   <si>
+    <t>FreqTraveler831</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r131968861-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1938,6 +2160,9 @@
     <t>Very nice hotel located close to Dallas Love Field with shuttle service.The staff at this hotel are great very helpful. I am a Marriott Rewards Member and have settings on my online account like extra feather pillows, high floor extra towels etc. I have stayed here several time and they always make sure to accommodate my requests prior to arrival. The rooms are very clean and well kept.They offer a social in the evenings with food and drinks available.Anytime I return to this area I will stay at this hotel!More</t>
   </si>
   <si>
+    <t>vgnc11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r130385730-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1953,6 +2178,9 @@
     <t>well, it was my first stop in U.S and i love the breakfast there. A gently lady who helps prepare the food every morning. it is clean and warm. Also the staff is very helpful picking us up or sending us to steak house,thanks</t>
   </si>
   <si>
+    <t>songofthedodo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r118487763-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1971,6 +2199,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>54cindyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r117299852-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1989,6 +2220,9 @@
     <t>The night front desk worker Andrew  is more than beyond rude!!! I will never stop at this Marriott again horrible location and a very old style room for the price.More</t>
   </si>
   <si>
+    <t>Axsdata</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r115507307-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2010,6 +2244,9 @@
     <t>I travel on business regularly and generally stay in Mariott hotels - mostly The less expensive ones.  The room was good and comfortable.The happy hour was great with good snacks and beer.  The breakfast was also good with eggs and bacon etc.The management was very friendly.More</t>
   </si>
   <si>
+    <t>BizDevRoadee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r89103689-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2028,6 +2265,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>EricRode</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r80176221-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2064,6 +2304,9 @@
     <t>Needed a room that would accomodate a broadrange age group of children. I was able to stay in aroom that had two queen size beds a pull out couch and a pack and play, with all of this room was still spacious and comfortable. The suite even had a seperate door to give some privacy to the older teen. The hotel was near the highway and only 14 miles from Grapevine Mall and only 5 minutes from lovefield.  We slep well the first night, but in the morning we noticed some young lady had left her contraceptive behind, it looked to be a Mirena, yes you read right a MIRENA. I provided a picture so that you can judge for yourself. I spoke with the staff and the manager and we discussed "human error" conceding this, I forgave and the manager gave a free night stay. This is a good hotel with very professional staff, accomodating and value for the price. I am writing only so that future travelers will check their room more thorougly in the future to prevent any issues like mine. My only hope for the young lady whom the Mirena belonged to, isn't expecting, unexpectedly. (SMILE)More</t>
   </si>
   <si>
+    <t>loraccity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r46191166-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2085,6 +2328,9 @@
     <t>Excellent service, appetizers, and cookies. Rooms were spacious.The only criticism is the gym is a little small.More</t>
   </si>
   <si>
+    <t>RoadWarriorBluffton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r43834162-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2103,6 +2349,9 @@
     <t>While located adjacent to I-35W the room was quiet.  Plenty of living space, but the desk area could use better lighting.  Excellent continental breakfast with both hot and cold items.In an area with easy access to major highways and restaurants.More</t>
   </si>
   <si>
+    <t>ostate1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r26638335-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2124,6 +2373,9 @@
     <t>The service was fine...the room was nice. It was fairly clean and hotel was well kept. The front elevator was broken when we were there, but not that big of a deal to us. It wasn't the nicest springhill suites we have stayed at, but overall it was okay for a couple of nights. The price determined our stay there.It was NOT in a good area of town. You can easily run into inappropriate activity a couple of streets over as we did. We made sure to park our car in front of the hotel. Just felt it was safer under the lights and where it could be seen.Our room was in the front of the hotel and even with the fan on at night, I could still hear the traffic on I-35. Usually stuff like this doesn't bother me, but for some reason it did this time. I would request a room in the back of the hotel.More</t>
   </si>
   <si>
+    <t>Originalsweetone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r19840703-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2145,6 +2397,9 @@
     <t>Attended a training class at this hotel.  I enjoyed the room, the food and the staff.  I'm not too crazy about the location.  The pool and other amenities were nice.  The evening cookies were delicious.  I will be back for another class and look forward to another comfortable stay.More</t>
   </si>
   <si>
+    <t>blaqwynter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r18739658-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2166,6 +2421,9 @@
     <t>It was a pleasent stay, I was with my b/f at the time and the beds were comfortable. The staff were friendly, and other services were quick and excellent. I will return here one day.More</t>
   </si>
   <si>
+    <t>stormy0823</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r14659069-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2187,6 +2445,9 @@
     <t>I was at the Springhill Suites Marriott on 23 March 2008 until 28 March 2008: I don't have one bad thing to say. The service, the staff and the hotel were OUTSTANDING!  I have been to several hotels and this one topped the cake. The whole place was nice and clean the rooms were GREAT! I Usually have trouble sleeping when I am not at home but not here I went to sleep and slept all night. I hated to leave when the time came. I found myself waking up Saturday morning (after I had left the hotel) missing it. I was wondering where my breakfast was and later were was my dinner.  I even thought about calling the hotel and asking if Neil or David were in so they could mail me some breakfast. The General Manager Neil was GREAT! David was also GREAT! I work for AAFES and I hope that when we are in Dallas they will always have us stay there. Thanks Springhill Suites Marriott for making this a great experience.Janice MalloryP.S. I was the guest that always wanted fried chicken! Thanks for everything.More</t>
   </si>
   <si>
+    <t>bozbird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r11391176-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2208,6 +2469,9 @@
     <t>My mom was having surgery at the NEARBY UT Southwestern Hospital complex. W/c accessable rooms, King bed in b/r, pullout queen in living room. Fairly quiet until the maids start their tirade in the morning. Nice am buffet. Homeade cookies in the evening. Great staff. Close parking.More</t>
   </si>
   <si>
+    <t>Jenwee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r8656130-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2227,6 +2491,9 @@
   </si>
   <si>
     <t>I booked this hotel for a preseason game that my husband and I went to while in Dallas. I was a little nervous staying here since the other reviews are kind of old. But what a deal! We got our room for $85 for the night. We had a king sized bed that was a 'suite' with a pullout couch and microwave and fridge. Our room was clean and the bathroom was a good size. The hotel is very close to Cowboys stadium (it was a little tricky getting into the hotel so luckily we had some good maps). The hotel is just one exit away from the red parking lot. The breakfast was ok....I did have some old milk that didn’t taste quite right but once i mentioned it, it was immediately replaced. The pool is outdoor and very nice. The workout facility looked pretty new. The hot tub looked a little dated but was still good.This was an excellent value for its location and I will stay here again :) :)More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98622-r1751158-SpringHill_Suites_Dallas_NW_Highway_at_Stemmons_I_35E-Dallas_Texas.html</t>
@@ -2749,43 +3016,47 @@
       <c r="A2" t="n">
         <v>20910</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>3064</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2797,56 +3068,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>20910</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>322</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2866,50 +3141,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>20910</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>8371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2921,56 +3200,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>20910</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>5101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2988,56 +3271,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20910</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177676</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3055,56 +3342,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>20910</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177677</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3116,56 +3407,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>20910</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177678</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3181,56 +3476,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>20910</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>11859</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3242,47 +3541,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>20910</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177679</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
@@ -3299,47 +3602,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>20910</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177680</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -3356,56 +3663,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>20910</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177681</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3421,56 +3732,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>20910</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>15606</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3482,56 +3797,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>20910</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>20210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3547,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>20910</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177682</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3612,56 +3935,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>20910</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177683</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3679,56 +4006,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>20910</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177684</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3744,56 +4075,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20910</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>39392</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3805,56 +4140,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>20910</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3866,56 +4205,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20910</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177685</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3933,56 +4276,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>20910</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177686</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3998,56 +4345,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20910</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177687</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4063,47 +4414,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>20910</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177688</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -4120,56 +4475,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>20910</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>290</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4185,56 +4544,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>20910</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4250,56 +4613,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>20910</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177689</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4317,56 +4684,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>20910</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177690</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4384,56 +4755,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="X27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20910</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>11110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>284</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4445,56 +4820,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>20910</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>66899</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4508,50 +4887,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>20910</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177691</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4569,50 +4952,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>20910</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4630,50 +5017,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>20910</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4685,56 +5076,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>20910</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>6480</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4750,56 +5145,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="X33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>20910</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177692</v>
+      </c>
+      <c r="C34" t="s">
+        <v>333</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4813,50 +5212,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>20910</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>80145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>340</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4874,56 +5277,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="X35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>20910</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>8371</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4937,50 +5344,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>20910</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177693</v>
+      </c>
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="J37" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="L37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4994,50 +5405,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>20910</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177694</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5055,56 +5470,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>20910</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177695</v>
+      </c>
+      <c r="C39" t="s">
+        <v>372</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5122,56 +5541,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="X39" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="Y39" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>20910</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177696</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5189,56 +5612,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="X40" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="Y40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>20910</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177697</v>
+      </c>
+      <c r="C41" t="s">
+        <v>392</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5256,56 +5683,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>20910</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177698</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="O42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5323,56 +5754,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X42" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y42" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>20910</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177699</v>
+      </c>
+      <c r="C43" t="s">
+        <v>409</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="J43" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="K43" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="L43" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5384,56 +5819,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X43" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>20910</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>15668</v>
+      </c>
+      <c r="C44" t="s">
+        <v>416</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="L44" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5451,56 +5890,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y44" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>20910</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C45" t="s">
+        <v>426</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5516,56 +5959,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X45" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>20910</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177700</v>
+      </c>
+      <c r="C46" t="s">
+        <v>433</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="J46" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="K46" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="L46" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5583,56 +6030,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X46" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y46" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>20910</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177701</v>
+      </c>
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J47" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K47" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="L47" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5644,56 +6095,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X47" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y47" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>20910</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>37728</v>
+      </c>
+      <c r="C48" t="s">
+        <v>448</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="J48" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="K48" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="L48" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5711,56 +6166,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X48" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y48" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>20910</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>40751</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5772,56 +6231,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X49" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>20910</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177702</v>
+      </c>
+      <c r="C50" t="s">
+        <v>462</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5833,56 +6296,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X50" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y50" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>20910</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177703</v>
+      </c>
+      <c r="C51" t="s">
+        <v>469</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="J51" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="K51" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L51" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5898,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X51" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>20910</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>14253</v>
+      </c>
+      <c r="C52" t="s">
+        <v>477</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="J52" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K52" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="L52" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5965,56 +6436,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X52" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y52" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>20910</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177704</v>
+      </c>
+      <c r="C53" t="s">
+        <v>484</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="J53" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="K53" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="L53" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6032,56 +6507,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X53" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y53" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>20910</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>14079</v>
+      </c>
+      <c r="C54" t="s">
+        <v>492</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="J54" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="K54" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6097,56 +6576,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X54" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y54" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>20910</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177705</v>
+      </c>
+      <c r="C55" t="s">
+        <v>500</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="J55" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="K55" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="L55" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6164,56 +6647,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y55" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>20910</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177706</v>
+      </c>
+      <c r="C56" t="s">
+        <v>509</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="J56" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6231,56 +6718,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="X56" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>20910</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>83602</v>
+      </c>
+      <c r="C57" t="s">
+        <v>519</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="J57" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="K57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="L57" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6302,56 +6793,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="X57" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="Y57" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>20910</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177707</v>
+      </c>
+      <c r="C58" t="s">
+        <v>529</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="J58" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="K58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="L58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6367,56 +6862,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="X58" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="Y58" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>20910</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>31634</v>
+      </c>
+      <c r="C59" t="s">
+        <v>539</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="J59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="K59" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="L59" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="O59" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6428,56 +6927,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="X59" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="Y59" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>20910</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>35990</v>
+      </c>
+      <c r="C60" t="s">
+        <v>547</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="J60" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="K60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="L60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="O60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6495,47 +6998,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="X60" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="Y60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>20910</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>3910</v>
+      </c>
+      <c r="C61" t="s">
+        <v>554</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="J61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="K61" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="L61" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
@@ -6552,56 +7059,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="X61" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="Y61" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>20910</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>177708</v>
+      </c>
+      <c r="C62" t="s">
+        <v>563</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="J62" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="K62" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="L62" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6623,47 +7134,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="X62" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="Y62" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>20910</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>72260</v>
+      </c>
+      <c r="C63" t="s">
+        <v>571</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="J63" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="K63" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="L63" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
@@ -6680,56 +7195,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X63" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y63" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>20910</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177709</v>
+      </c>
+      <c r="C64" t="s">
+        <v>578</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="J64" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="K64" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="L64" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="O64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6741,56 +7260,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X64" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y64" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>20910</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177710</v>
+      </c>
+      <c r="C65" t="s">
+        <v>585</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="J65" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="K65" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="L65" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="O65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6812,56 +7335,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X65" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y65" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>20910</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177711</v>
+      </c>
+      <c r="C66" t="s">
+        <v>593</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="J66" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="K66" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="L66" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6883,56 +7410,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X66" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y66" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>20910</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>21353</v>
+      </c>
+      <c r="C67" t="s">
+        <v>601</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="J67" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="K67" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="L67" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="O67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6944,56 +7475,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X67" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y67" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>20910</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C68" t="s">
+        <v>426</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="J68" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="K68" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="L68" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="O68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7015,56 +7550,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X68" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y68" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>20910</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>35990</v>
+      </c>
+      <c r="C69" t="s">
+        <v>547</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="J69" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="K69" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="L69" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="O69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7086,56 +7625,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X69" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y69" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>20910</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177712</v>
+      </c>
+      <c r="C70" t="s">
+        <v>623</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="J70" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="K70" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="L70" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="O70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7157,56 +7700,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X70" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y70" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>20910</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>4299</v>
+      </c>
+      <c r="C71" t="s">
+        <v>631</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="J71" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="K71" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="L71" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="O71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7228,56 +7775,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X71" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y71" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>20910</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>177713</v>
+      </c>
+      <c r="C72" t="s">
+        <v>639</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="J72" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="K72" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="L72" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="O72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7299,56 +7850,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X72" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y72" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>20910</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177714</v>
+      </c>
+      <c r="C73" t="s">
+        <v>647</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="J73" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="K73" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="L73" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="O73" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7370,56 +7925,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X73" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y73" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>20910</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177715</v>
+      </c>
+      <c r="C74" t="s">
+        <v>655</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="J74" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="K74" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="L74" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="O74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7441,56 +8000,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X74" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y74" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>20910</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>17056</v>
+      </c>
+      <c r="C75" t="s">
+        <v>663</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="J75" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="K75" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="L75" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="O75" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7514,50 +8077,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>20910</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177716</v>
+      </c>
+      <c r="C76" t="s">
+        <v>670</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="J76" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="K76" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="L76" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7579,56 +8146,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X76" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y76" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>20910</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177717</v>
+      </c>
+      <c r="C77" t="s">
+        <v>678</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="J77" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="K77" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="L77" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="O77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7652,50 +8223,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>20910</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177718</v>
+      </c>
+      <c r="C78" t="s">
+        <v>686</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="J78" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="K78" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="L78" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="O78" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7717,56 +8292,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X78" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y78" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>20910</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177719</v>
+      </c>
+      <c r="C79" t="s">
+        <v>694</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="J79" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="K79" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="L79" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="O79" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7790,50 +8369,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>20910</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177720</v>
+      </c>
+      <c r="C80" t="s">
+        <v>700</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="J80" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="K80" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="L80" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="O80" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7857,41 +8440,45 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>20910</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177721</v>
+      </c>
+      <c r="C81" t="s">
+        <v>707</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="J81" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="K81" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="L81" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
@@ -7918,56 +8505,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X81" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y81" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>20910</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>177722</v>
+      </c>
+      <c r="C82" t="s">
+        <v>714</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="J82" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="K82" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="L82" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="O82" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7985,56 +8576,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X82" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y82" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>20910</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>82408</v>
+      </c>
+      <c r="C83" t="s">
+        <v>722</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="J83" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="K83" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="L83" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="O83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -8058,41 +8653,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>20910</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>177723</v>
+      </c>
+      <c r="C84" t="s">
+        <v>729</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="J84" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="K84" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="L84" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
@@ -8121,50 +8720,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>20910</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>177716</v>
+      </c>
+      <c r="C85" t="s">
+        <v>678</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="J85" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="K85" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="L85" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="O85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8188,50 +8791,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>20910</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>177724</v>
+      </c>
+      <c r="C86" t="s">
+        <v>742</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="J86" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="K86" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="L86" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="O86" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8253,56 +8860,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X86" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y86" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>20910</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177725</v>
+      </c>
+      <c r="C87" t="s">
+        <v>750</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="J87" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="K87" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="L87" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="O87" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8324,56 +8935,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X87" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y87" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>20910</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>177726</v>
+      </c>
+      <c r="C88" t="s">
+        <v>757</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="J88" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="K88" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="L88" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="O88" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8395,56 +9010,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X88" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y88" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>20910</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>177727</v>
+      </c>
+      <c r="C89" t="s">
+        <v>765</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="J89" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="K89" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
       <c r="L89" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="O89" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8466,56 +9085,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X89" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y89" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>20910</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>177728</v>
+      </c>
+      <c r="C90" t="s">
+        <v>773</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>689</v>
+        <v>774</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="J90" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="K90" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
       <c r="L90" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>694</v>
+        <v>779</v>
       </c>
       <c r="O90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="n">
@@ -8535,56 +9158,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X90" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y90" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>20910</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177729</v>
+      </c>
+      <c r="C91" t="s">
+        <v>781</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="J91" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="K91" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="L91" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>701</v>
+        <v>787</v>
       </c>
       <c r="O91" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8606,56 +9233,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X91" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y91" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>20910</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>177730</v>
+      </c>
+      <c r="C92" t="s">
+        <v>789</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="J92" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="K92" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
       <c r="L92" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="O92" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="n">
@@ -8675,56 +9306,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X92" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y92" t="s">
-        <v>709</v>
+        <v>796</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>20910</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>83630</v>
+      </c>
+      <c r="C93" t="s">
+        <v>797</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="J93" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="K93" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="L93" t="s">
-        <v>714</v>
+        <v>802</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>715</v>
+        <v>803</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8746,47 +9381,51 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X93" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y93" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>20910</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>805</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="J94" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="K94" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="L94" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8803,13 +9442,13 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X94" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y94" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
